--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\data-migration\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\knowledge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10BC28C-85EF-4468-AC9A-159C9B66EB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,27 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="564">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -65,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -78,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -97,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -116,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -135,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -167,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -186,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -205,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -227,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -248,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -269,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -290,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -311,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -323,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -342,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -354,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -373,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -392,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -411,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -430,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -478,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -497,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -516,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -535,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -547,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -566,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -585,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -605,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -624,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -644,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -663,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -675,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -694,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -713,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -737,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -756,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -775,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -794,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -813,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -825,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -844,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -855,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -876,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -887,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -906,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -925,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -949,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -968,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -988,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1008,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1028,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1049,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1069,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1104,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1125,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1137,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1156,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1177,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1196,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1209,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1228,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1247,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1266,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1281,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1300,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1319,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1338,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1357,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1373,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1383,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1402,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1428,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1447,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1462,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1481,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1500,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1520,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1544,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1563,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1582,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1602,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1623,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1634,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1644,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1656,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1675,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1694,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1713,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1733,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1752,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1771,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1791,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1810,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1829,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1848,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1868,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1880,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1891,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1901,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1913,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1932,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1944,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1963,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1983,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2908,6 +2788,12 @@
     <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPage</t>
   </si>
   <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.autoSavePage</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3328,6 +3214,12 @@
     <t>role/site/default/developer</t>
   </si>
   <si>
+    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -3536,22 +3428,52 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="93">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3587,38 +3509,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3639,485 +3684,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4148,8 +3753,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4250,13 +4041,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4265,32 +4302,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4300,109 +4349,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4475,9 +4484,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4735,281 +4741,291 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
+    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="103" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="102" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="104" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="105" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="49.5" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="49.5" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="66" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="33" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="102"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="102"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="49.5" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="24.7857142857143" customWidth="1"/>
+    <col min="6" max="6" width="63.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5023,13 +5039,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5041,10 +5057,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5065,7 +5081,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5090,7 +5106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5137,7 +5153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -5191,7 +5207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -5242,7 +5258,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -5293,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -5341,7 +5357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -5389,7 +5405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -5485,7 +5501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>121</v>
       </c>
@@ -5881,41 +5897,49 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="33.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="34.9285714285714" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5929,20 +5953,20 @@
       <c r="C7" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>158</v>
       </c>
@@ -5954,7 +5978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>160</v>
       </c>
@@ -5966,7 +5990,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>162</v>
       </c>
@@ -5978,7 +6002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>164</v>
       </c>
@@ -5990,7 +6014,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>166</v>
       </c>
@@ -6002,7 +6026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>168</v>
       </c>
@@ -6014,7 +6038,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>170</v>
       </c>
@@ -6026,7 +6050,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>172</v>
       </c>
@@ -6038,7 +6062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>174</v>
       </c>
@@ -7130,42 +7154,57 @@
         <v>349</v>
       </c>
     </row>
+    <row r="107" spans="5:7">
+      <c r="E107" t="s">
+        <v>350</v>
+      </c>
+      <c r="F107" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="45" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7177,98 +7216,98 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>353</v>
+      <c r="F7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" t="s">
+        <v>368</v>
+      </c>
+      <c r="K8" t="s">
         <v>365</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" t="s">
         <v>366</v>
       </c>
-      <c r="K8" t="s">
-        <v>363</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>367</v>
       </c>
-      <c r="F9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" t="s">
-        <v>364</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>365</v>
-      </c>
       <c r="J9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7280,21 +7319,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7306,53 +7345,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>374</v>
       </c>
-      <c r="G11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>365</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>375</v>
-      </c>
-      <c r="F12" t="s">
-        <v>376</v>
-      </c>
-      <c r="G12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>372</v>
-      </c>
       <c r="J12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7364,24 +7403,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -7393,24 +7432,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -7422,24 +7461,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -7451,24 +7490,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7480,27 +7519,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7512,27 +7551,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G18" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -7544,27 +7583,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7576,21 +7615,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7602,27 +7641,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -7634,27 +7673,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G22" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -7666,27 +7705,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -7698,21 +7737,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G24" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -7724,24 +7763,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J25" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -7753,24 +7792,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -7782,7 +7821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -7790,33 +7829,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="D28" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="E28" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="F28" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="G28" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="I28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7827,15 +7866,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7846,15 +7885,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7865,15 +7904,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F32" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7884,15 +7923,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7903,15 +7942,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I33" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F34" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7922,15 +7961,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I34" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7941,15 +7980,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I35" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7960,15 +7999,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F37" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7979,15 +8018,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7998,15 +8037,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8017,15 +8056,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I39" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8036,15 +8075,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I40" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8055,15 +8094,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I41" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8074,15 +8113,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I42" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8093,15 +8132,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I43" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8112,15 +8151,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I44" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8131,15 +8170,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I45" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8150,15 +8189,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I46" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F47" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8169,15 +8208,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I47" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8188,15 +8227,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F49" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8207,15 +8246,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8226,47 +8265,48 @@
         <v>iam_label-25</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="52" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8278,12 +8318,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -8292,79 +8332,79 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K7" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M7" s="85" t="s">
-        <v>432</v>
-      </c>
-      <c r="N7" s="86" t="s">
         <v>433</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="O7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="R7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="S7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>440</v>
-      </c>
-      <c r="W7" s="87" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="X7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Y7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -8397,30 +8437,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="V8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -8456,27 +8496,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="V9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -8513,33 +8553,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="V10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Y10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -8576,33 +8616,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="V11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Y11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F12" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -8639,33 +8679,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="V12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Y12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -8702,36 +8742,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="V13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Y13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J14" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8765,16 +8805,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="V14" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8782,33 +8822,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="90" t="s">
-        <v>492</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>493</v>
+      <c r="F16" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="H16" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I16" t="s">
-        <v>495</v>
-      </c>
-      <c r="J16" s="92" t="s">
-        <v>353</v>
+        <v>499</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8819,18 +8859,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8841,18 +8881,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J18" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8863,18 +8903,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I19" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8885,18 +8925,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I20" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J20" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8907,18 +8947,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I21" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J21" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8929,18 +8969,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I22" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J22" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8951,18 +8991,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I23" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J23" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8973,18 +9013,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I24" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J24" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8995,18 +9035,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I25" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J25" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9017,18 +9057,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I26" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J26" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9039,18 +9079,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I27" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J27" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9061,18 +9101,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I28" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J28" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9083,18 +9123,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I29" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J29" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -9105,18 +9145,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I30" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J30" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -9127,18 +9167,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I31" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J31" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -9149,18 +9189,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I32" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J32" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -9171,18 +9211,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I33" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J33" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -9193,18 +9233,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I34" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -9215,18 +9255,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I35" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J35" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -9237,18 +9277,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I36" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J36" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -9259,18 +9299,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I37" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J37" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -9281,18 +9321,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I38" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J38" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -9303,18 +9343,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I39" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J39" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -9325,18 +9365,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I40" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J40" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -9347,18 +9387,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I41" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J41" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -9369,18 +9409,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I42" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J42" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -9391,18 +9431,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I43" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J43" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -9413,18 +9453,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I44" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J44" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -9435,51 +9475,54 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I45" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J45" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="59" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9491,66 +9534,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>353</v>
+      <c r="F7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -9562,88 +9605,88 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G9" t="s">
+        <v>534</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" t="s">
+        <v>538</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" t="s">
+        <v>539</v>
+      </c>
+      <c r="G10" t="s">
+        <v>534</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>367</v>
       </c>
-      <c r="F9" t="s">
-        <v>533</v>
-      </c>
-      <c r="G9" t="s">
-        <v>530</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>372</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K10" t="s">
+        <v>540</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" t="s">
         <v>534</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" t="s">
-        <v>535</v>
-      </c>
-      <c r="G10" t="s">
-        <v>530</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>365</v>
-      </c>
-      <c r="J10" t="s">
-        <v>536</v>
-      </c>
-      <c r="K10" t="s">
-        <v>536</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11" t="s">
-        <v>537</v>
-      </c>
-      <c r="G11" t="s">
-        <v>530</v>
-      </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J11" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9655,27 +9698,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G12" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -9687,27 +9730,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9719,27 +9762,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9751,27 +9794,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G15" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K15" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9783,27 +9826,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F16" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9815,27 +9858,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G17" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K17" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9847,27 +9890,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G18" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K18" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9879,27 +9922,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -9911,7 +9954,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -9919,33 +9962,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" s="98" t="s">
         <v>420</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="D21" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="E21" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="F21" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="G21" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="I21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F22" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -9956,15 +9999,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="E23" t="s">
-        <v>425</v>
-      </c>
       <c r="F23" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -9975,15 +10018,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="E24" t="s">
-        <v>425</v>
-      </c>
       <c r="F24" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -9994,15 +10037,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="E25" t="s">
-        <v>425</v>
-      </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -10013,15 +10056,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="E26" t="s">
-        <v>425</v>
-      </c>
       <c r="F26" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -10032,15 +10075,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="E27" t="s">
-        <v>425</v>
-      </c>
       <c r="F27" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -10051,15 +10094,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="E28" t="s">
-        <v>425</v>
-      </c>
       <c r="F28" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -10070,15 +10113,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="E29" t="s">
-        <v>425</v>
-      </c>
       <c r="F29" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -10089,15 +10132,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="E30" t="s">
-        <v>425</v>
-      </c>
       <c r="F30" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -10108,15 +10151,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="E31" t="s">
-        <v>425</v>
-      </c>
       <c r="F31" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -10127,15 +10170,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="E32" t="s">
-        <v>425</v>
-      </c>
       <c r="F32" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -10146,15 +10189,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F33" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -10165,15 +10208,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F34" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -10184,15 +10227,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F35" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -10203,12 +10246,12 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -3437,10 +3437,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3510,21 +3510,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3539,17 +3524,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3562,7 +3547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3576,9 +3561,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3600,6 +3592,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -3614,6 +3621,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3621,17 +3629,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3645,22 +3652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3687,13 +3681,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3706,12 +3693,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3755,7 +3736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3773,19 +3766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3797,7 +3796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3815,13 +3844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3833,7 +3856,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3845,61 +3892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3917,25 +3916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4042,17 +4023,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4066,37 +4058,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4125,168 +4097,177 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4994,7 +4975,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5908,7 +5889,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7159,8 +7140,8 @@
         <v>350</v>
       </c>
       <c r="F107" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G107" t="s">
         <v>351</v>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="566">
   <si>
     <r>
       <rPr>
@@ -2792,6 +2792,12 @@
   </si>
   <si>
     <t>knowledgebase-service.page-project.autoSavePage</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-108</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.deleteDraftContent</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3435,10 +3441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3516,16 +3522,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3539,6 +3553,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3547,7 +3568,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3562,15 +3583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3601,21 +3614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3624,21 +3623,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3655,6 +3639,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3736,49 +3742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3796,7 +3760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3808,13 +3784,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3826,13 +3832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3844,43 +3850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3898,7 +3874,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3910,13 +3910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4023,17 +4029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4058,6 +4053,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4069,6 +4075,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4096,175 +4126,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5886,10 +5892,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="E96" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7145,6 +7151,18 @@
       </c>
       <c r="G107" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" t="s">
+        <v>352</v>
+      </c>
+      <c r="F108" t="str">
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7197,66 +7215,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" t="s">
         <v>367</v>
-      </c>
-      <c r="J8" t="s">
-        <v>368</v>
-      </c>
-      <c r="K8" t="s">
-        <v>365</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -7270,25 +7288,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>369</v>
       </c>
-      <c r="F9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G9" t="s">
-        <v>366</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>367</v>
-      </c>
       <c r="J9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7302,19 +7320,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7328,19 +7346,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -7354,25 +7372,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7386,22 +7404,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -7415,22 +7433,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -7444,22 +7462,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -7473,22 +7491,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7502,25 +7520,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7534,25 +7552,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -7566,25 +7584,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7598,19 +7616,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7624,25 +7642,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -7656,25 +7674,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G22" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -7688,25 +7706,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -7720,19 +7738,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G24" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -7746,22 +7764,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F25" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J25" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -7775,22 +7793,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -7810,33 +7828,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I28" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F29" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7847,15 +7865,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7866,15 +7884,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F31" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7885,15 +7903,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7904,15 +7922,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F33" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7923,15 +7941,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I33" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F34" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7942,15 +7960,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I34" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7961,15 +7979,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I35" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7980,15 +7998,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7999,15 +8017,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F38" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8018,15 +8036,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8037,15 +8055,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I39" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8056,15 +8074,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8075,15 +8093,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I41" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8094,15 +8112,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I42" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8113,15 +8131,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8132,15 +8150,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I44" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8151,15 +8169,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I45" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8170,15 +8188,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I46" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F47" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8189,15 +8207,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I47" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8208,15 +8226,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I48" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8227,15 +8245,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8246,7 +8264,7 @@
         <v>iam_label-25</v>
       </c>
       <c r="I50" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -8299,10 +8317,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -8317,75 +8335,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="R7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="S7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="X7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Y7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -8418,10 +8436,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="V8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -8429,19 +8447,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -8477,10 +8495,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="V9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -8488,16 +8506,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -8534,33 +8552,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="V10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Y10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -8597,33 +8615,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="V11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Y11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -8660,33 +8678,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="V12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Y12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -8723,36 +8741,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="V13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8786,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="V14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8803,33 +8821,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I16" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8840,18 +8858,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I17" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J17" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8862,18 +8880,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I18" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8884,18 +8902,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I19" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8906,18 +8924,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I20" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J20" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8928,18 +8946,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J21" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8950,18 +8968,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8972,18 +8990,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I23" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J23" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8994,18 +9012,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J24" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9016,18 +9034,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I25" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J25" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9038,18 +9056,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9060,18 +9078,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I27" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J27" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9082,18 +9100,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9104,18 +9122,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I29" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -9126,18 +9144,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I30" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -9148,18 +9166,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -9170,18 +9188,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I32" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -9192,18 +9210,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -9214,18 +9232,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I34" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -9236,18 +9254,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I35" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -9258,18 +9276,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I36" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J36" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -9280,18 +9298,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I37" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J37" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -9302,18 +9320,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I38" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J38" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -9324,18 +9342,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I39" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J39" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -9346,18 +9364,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J40" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -9368,18 +9386,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I41" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -9390,18 +9408,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J42" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -9412,18 +9430,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I43" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J43" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -9434,18 +9452,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I44" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J44" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -9456,13 +9474,13 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I45" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J45" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -9515,66 +9533,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -9588,22 +9606,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -9617,25 +9635,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -9649,25 +9667,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9681,25 +9699,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G12" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -9713,25 +9731,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9745,25 +9763,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G14" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9777,25 +9795,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K15" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9809,25 +9827,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G16" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9841,25 +9859,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G17" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9873,25 +9891,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G18" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9905,25 +9923,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G19" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J19" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -9943,33 +9961,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -9980,15 +9998,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F23" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -9999,15 +10017,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -10018,15 +10036,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -10037,15 +10055,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F26" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -10056,15 +10074,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -10075,15 +10093,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F28" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -10094,15 +10112,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F29" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -10113,15 +10131,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F30" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -10132,15 +10150,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F31" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -10151,15 +10169,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -10170,15 +10188,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F33" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -10189,15 +10207,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F34" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -10208,15 +10226,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -10227,7 +10245,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="568">
   <si>
     <r>
       <rPr>
@@ -2798,6 +2798,12 @@
   </si>
   <si>
     <t>knowledgebase-service.page-project.deleteDraftContent</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.queryDraftPage</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3441,10 +3447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3516,7 +3522,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3525,6 +3545,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3546,44 +3604,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3594,45 +3623,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3659,10 +3649,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3742,7 +3748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3760,13 +3772,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3778,7 +3844,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3790,13 +3910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3808,121 +3928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,6 +4050,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4055,11 +4102,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4078,199 +4132,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5892,9 +5898,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
@@ -7163,6 +7169,18 @@
       </c>
       <c r="G108" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" t="str">
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7215,66 +7233,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" t="s">
         <v>369</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
-      </c>
-      <c r="K8" t="s">
-        <v>367</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -7288,25 +7306,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>371</v>
       </c>
-      <c r="F9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G9" t="s">
-        <v>368</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>369</v>
-      </c>
       <c r="J9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7320,19 +7338,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7346,19 +7364,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -7372,25 +7390,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7404,22 +7422,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -7433,22 +7451,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -7462,22 +7480,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -7491,22 +7509,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7520,25 +7538,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7552,25 +7570,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -7584,25 +7602,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7616,19 +7634,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7642,25 +7660,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -7674,25 +7692,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -7706,25 +7724,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -7738,19 +7756,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -7764,22 +7782,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -7793,22 +7811,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -7828,33 +7846,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7865,15 +7883,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7884,15 +7902,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7903,15 +7921,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7922,15 +7940,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7941,15 +7959,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I33" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7960,15 +7978,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I34" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7979,15 +7997,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I35" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7998,15 +8016,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8017,15 +8035,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8036,15 +8054,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8055,15 +8073,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I39" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F40" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8074,15 +8092,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I40" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -8093,15 +8111,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I41" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8112,15 +8130,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I42" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8131,15 +8149,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I43" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8150,15 +8168,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I44" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -8169,15 +8187,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I45" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8188,15 +8206,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I46" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8207,15 +8225,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -8226,15 +8244,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8245,15 +8263,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -8264,7 +8282,7 @@
         <v>iam_label-25</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8317,10 +8335,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -8335,75 +8353,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="R7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="T7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="X7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -8436,10 +8454,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="V8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -8447,19 +8465,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -8495,10 +8513,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="V9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -8506,16 +8524,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -8552,33 +8570,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Y10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -8615,33 +8633,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="V11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -8678,33 +8696,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="V12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Y12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -8741,36 +8759,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Y13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8804,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="V14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8821,33 +8839,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8858,18 +8876,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8880,18 +8898,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I18" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J18" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8902,18 +8920,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J19" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8924,18 +8942,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8946,18 +8964,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8968,18 +8986,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8990,18 +9008,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9012,18 +9030,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I24" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J24" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9034,18 +9052,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I25" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9056,18 +9074,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9078,18 +9096,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I27" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J27" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9100,18 +9118,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I28" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J28" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9122,18 +9140,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I29" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J29" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -9144,18 +9162,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I30" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J30" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -9166,18 +9184,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -9188,18 +9206,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I32" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J32" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -9210,18 +9228,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I33" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -9232,18 +9250,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I34" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J34" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -9254,18 +9272,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I35" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -9276,18 +9294,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I36" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J36" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -9298,18 +9316,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I37" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J37" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -9320,18 +9338,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I38" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J38" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -9342,18 +9360,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I39" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J39" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -9364,18 +9382,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I40" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J40" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -9386,18 +9404,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I41" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J41" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -9408,18 +9426,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I42" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J42" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -9430,18 +9448,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I43" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -9452,18 +9470,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I44" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J44" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -9474,13 +9492,13 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I45" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -9533,66 +9551,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J8" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -9606,22 +9624,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -9635,25 +9653,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -9667,25 +9685,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9699,25 +9717,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -9731,25 +9749,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G13" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K13" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9763,25 +9781,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G14" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J14" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9795,25 +9813,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9827,25 +9845,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G16" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9859,25 +9877,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G17" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9891,25 +9909,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G18" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J18" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K18" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9923,25 +9941,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G19" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K19" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -9961,33 +9979,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F22" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -9998,15 +10016,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -10017,15 +10035,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -10036,15 +10054,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F25" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -10055,15 +10073,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -10074,15 +10092,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -10093,15 +10111,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -10112,15 +10130,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -10131,15 +10149,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -10150,15 +10168,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -10169,15 +10187,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F32" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -10188,15 +10206,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -10207,15 +10225,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -10226,15 +10244,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -10245,7 +10263,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114EDF38-4EB1-4AAA-9A4C-35528F106DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="535">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2113,9 +2225,6 @@
     <t>XZ</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>iam_menu-17</t>
   </si>
   <si>
@@ -2860,18 +2969,9 @@
     <t>iam_label-9</t>
   </si>
   <si>
-    <t>PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目层菜单</t>
-  </si>
-  <si>
     <t>iam_label-10</t>
   </si>
   <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -2893,123 +2993,30 @@
     <t>iam_label-13</t>
   </si>
   <si>
-    <t>AGILE_MENU</t>
-  </si>
-  <si>
-    <t>标识敏捷类型菜单</t>
-  </si>
-  <si>
     <t>iam_label-14</t>
   </si>
   <si>
-    <t>GENERAL_MENU</t>
-  </si>
-  <si>
-    <t>标识devops全流程项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-15</t>
   </si>
   <si>
-    <t>PROGRAM_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-16</t>
   </si>
   <si>
-    <t>PROGRAM_PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群子项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-17</t>
   </si>
   <si>
-    <t>OPERATIONS_MENU</t>
-  </si>
-  <si>
-    <t>标识运维项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-18</t>
   </si>
   <si>
-    <t>KNOWLEDGE_MENU</t>
-  </si>
-  <si>
-    <t>标识组织层知识库菜单</t>
-  </si>
-  <si>
     <t>iam_label-19</t>
   </si>
   <si>
-    <t>CHOERODON_MENU</t>
-  </si>
-  <si>
-    <t>标识猪齿鱼菜单</t>
-  </si>
-  <si>
     <t>iam_label-20</t>
   </si>
   <si>
     <t>TENANT_GENERAL</t>
   </si>
   <si>
-    <t>iam_label-21</t>
-  </si>
-  <si>
-    <t>AGILE_SERVICE</t>
-  </si>
-  <si>
-    <t>敏捷服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-22</t>
-  </si>
-  <si>
-    <t>DEVOPS_SERVICE</t>
-  </si>
-  <si>
-    <t>devops服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-23</t>
-  </si>
-  <si>
-    <t>PLATFORM_SERVICE</t>
-  </si>
-  <si>
-    <t>平台服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-24</t>
-  </si>
-  <si>
-    <t>IAM_SERVICE</t>
-  </si>
-  <si>
-    <t>iam_label-25</t>
-  </si>
-  <si>
-    <t>KNOWLEDGEBASE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-26</t>
-  </si>
-  <si>
-    <t>TEST_MANAGER_SERVICE</t>
-  </si>
-  <si>
-    <t>测试服务菜单</t>
-  </si>
-  <si>
     <t>标签关系表</t>
   </si>
   <si>
@@ -3034,9 +3041,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -3440,19 +3444,24 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_GENERAL_PROJECT_MENU</t>
+  </si>
+  <si>
+    <t>标识项目层通用菜单</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3463,25 +3472,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3521,157 +3530,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3700,12 +3558,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3714,8 +3574,50 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3746,194 +3648,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4034,254 +3750,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4295,20 +3769,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4342,9 +3804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4352,59 +3811,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4477,6 +3912,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4734,270 +4172,267 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7857142857143" customWidth="1"/>
-    <col min="6" max="6" width="63.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5011,7 +4446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5099,7 +4534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5146,7 +4581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -5200,7 +4635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -5251,7 +4686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -5302,7 +4737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -5350,7 +4785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -5398,7 +4833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -5446,7 +4881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -5494,7 +4929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>121</v>
       </c>
@@ -5519,8 +4954,8 @@
       <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
-        <v>125</v>
+      <c r="M16" s="33">
+        <v>10</v>
       </c>
       <c r="N16" t="s">
         <v>82</v>
@@ -5546,10 +4981,10 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
         <v>126</v>
-      </c>
-      <c r="F17" t="s">
-        <v>127</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -5571,25 +5006,25 @@
         <v>88</v>
       </c>
       <c r="M17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
         <v>128</v>
       </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>129</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s">
         <v>130</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>131</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
@@ -5603,16 +5038,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
         <v>132</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>133</v>
       </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -5637,7 +5072,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
@@ -5651,16 +5086,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
         <v>136</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>137</v>
       </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -5685,7 +5120,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
@@ -5699,16 +5134,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" t="s">
-        <v>142</v>
-      </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -5733,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T20" t="s">
         <v>80</v>
@@ -5747,16 +5182,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>145</v>
       </c>
-      <c r="G21" t="s">
-        <v>146</v>
-      </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
@@ -5781,7 +5216,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T21" t="s">
         <v>80</v>
@@ -5795,10 +5230,10 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" t="s">
-        <v>149</v>
       </c>
       <c r="G22" t="s">
         <v>106</v>
@@ -5829,7 +5264,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T22" t="s">
         <v>80</v>
@@ -5843,10 +5278,10 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
       </c>
       <c r="G23" t="s">
         <v>110</v>
@@ -5877,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T23" t="s">
         <v>80</v>
@@ -5890,28 +5325,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
+    <sheetView topLeftCell="E99" workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="34.9285714285714" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5925,7 +5359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5944,1263 +5378,1268 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" t="s">
-        <v>158</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" t="s">
-        <v>160</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" t="s">
-        <v>162</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" t="s">
-        <v>164</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" t="s">
-        <v>166</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" t="s">
-        <v>168</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" t="s">
-        <v>170</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" t="s">
-        <v>172</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" t="s">
-        <v>174</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G105" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7214,7 +6653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7233,1076 +6672,327 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>359</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>360</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>361</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>362</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>363</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>364</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>365</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>366</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>369</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
         <v>370</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>371</v>
       </c>
-      <c r="J8" t="s">
-        <v>372</v>
-      </c>
       <c r="K8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" t="s">
         <v>369</v>
       </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>370</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>374</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" t="s">
+        <v>379</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" t="s">
-        <v>374</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>378</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" t="s">
-        <v>370</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>371</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G12" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J12" t="s">
-        <v>383</v>
-      </c>
-      <c r="K12" t="s">
-        <v>383</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F13" t="s">
-        <v>385</v>
-      </c>
-      <c r="G13" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>371</v>
-      </c>
-      <c r="J13" t="s">
-        <v>386</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
-        <v>387</v>
-      </c>
-      <c r="F14" t="s">
-        <v>388</v>
-      </c>
-      <c r="G14" t="s">
-        <v>370</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
+      <c r="J12" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="31">
+        <v>1</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="I14" t="s">
-        <v>371</v>
-      </c>
-      <c r="J14" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
-      </c>
-      <c r="G15" t="s">
-        <v>370</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" t="s">
-        <v>392</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
+        <v>369</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H15" t="str">
+        <f>菜单标签数据!$E$11</f>
+        <v>iam_label-20</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
+        <v>369</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H16" t="str">
+        <f>菜单标签数据!$E$11</f>
+        <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
-      </c>
-      <c r="J16" t="s">
-        <v>395</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
         <v>396</v>
       </c>
       <c r="F17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E12</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I17" t="s">
         <v>397</v>
       </c>
-      <c r="G17" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>371</v>
-      </c>
-      <c r="J17" t="s">
-        <v>398</v>
-      </c>
-      <c r="K17" t="s">
-        <v>398</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F18" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" t="s">
-        <v>370</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
+        <v>369</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H18" t="str">
+        <f>E12</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" t="s">
-        <v>401</v>
-      </c>
-      <c r="K18" t="s">
-        <v>401</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>371</v>
-      </c>
-      <c r="J19" t="s">
-        <v>404</v>
-      </c>
-      <c r="K19" t="s">
-        <v>403</v>
-      </c>
-      <c r="M19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15">
-      <c r="E20" t="s">
-        <v>405</v>
-      </c>
-      <c r="F20" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" t="s">
-        <v>370</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
-        <v>378</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15">
-      <c r="E21" t="s">
-        <v>407</v>
-      </c>
-      <c r="F21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>378</v>
-      </c>
-      <c r="J21" t="s">
-        <v>409</v>
-      </c>
-      <c r="K21" t="s">
-        <v>409</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15">
-      <c r="E22" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" t="s">
-        <v>411</v>
-      </c>
-      <c r="G22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>378</v>
-      </c>
-      <c r="J22" t="s">
-        <v>412</v>
-      </c>
-      <c r="K22" t="s">
-        <v>412</v>
-      </c>
-      <c r="M22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15">
-      <c r="E23" t="s">
-        <v>413</v>
-      </c>
-      <c r="F23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G23" t="s">
-        <v>370</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>378</v>
-      </c>
-      <c r="J23" t="s">
-        <v>415</v>
-      </c>
-      <c r="K23" t="s">
-        <v>415</v>
-      </c>
-      <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15">
-      <c r="E24" t="s">
-        <v>416</v>
-      </c>
-      <c r="F24" t="s">
-        <v>417</v>
-      </c>
-      <c r="G24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s">
-        <v>378</v>
-      </c>
-      <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15">
-      <c r="E25" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" t="s">
-        <v>419</v>
-      </c>
-      <c r="G25" t="s">
-        <v>370</v>
-      </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
-        <v>378</v>
-      </c>
-      <c r="J25" t="s">
-        <v>420</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15">
-      <c r="E26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F26" t="s">
-        <v>422</v>
-      </c>
-      <c r="G26" t="s">
-        <v>370</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>378</v>
-      </c>
-      <c r="J26" t="s">
-        <v>423</v>
-      </c>
-      <c r="M26" t="s">
-        <v>80</v>
-      </c>
-      <c r="N26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I28" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
-        <v>431</v>
-      </c>
-      <c r="F29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H29" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" t="s">
-        <v>431</v>
-      </c>
-      <c r="F30" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H30" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
-        <v>431</v>
-      </c>
-      <c r="F31" t="s">
-        <v>370</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H31" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
-        <v>431</v>
-      </c>
-      <c r="F32" t="s">
-        <v>370</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H32" t="str">
-        <f>菜单标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>431</v>
-      </c>
-      <c r="F33" t="s">
-        <v>370</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H33" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>431</v>
-      </c>
-      <c r="F34" t="s">
-        <v>370</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I34" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>431</v>
-      </c>
-      <c r="F35" t="s">
-        <v>370</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H35" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I35" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>431</v>
-      </c>
-      <c r="F36" t="s">
-        <v>370</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H36" t="str">
-        <f>菜单标签数据!$E$25</f>
-        <v>iam_label-25</v>
-      </c>
-      <c r="I36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>431</v>
-      </c>
-      <c r="F37" t="s">
-        <v>370</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H37" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F38" t="s">
-        <v>370</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H38" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>431</v>
-      </c>
-      <c r="F39" t="s">
-        <v>370</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H39" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
-        <v>431</v>
-      </c>
-      <c r="F40" t="s">
-        <v>370</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H40" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>431</v>
-      </c>
-      <c r="F41" t="s">
-        <v>370</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H41" t="str">
-        <f>菜单标签数据!$E$25</f>
-        <v>iam_label-25</v>
-      </c>
-      <c r="I41" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>431</v>
-      </c>
-      <c r="F42" t="s">
-        <v>370</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H42" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>431</v>
-      </c>
-      <c r="F43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H43" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>431</v>
-      </c>
-      <c r="F44" t="s">
-        <v>370</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H44" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>431</v>
-      </c>
-      <c r="F45" t="s">
-        <v>370</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H45" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>431</v>
-      </c>
-      <c r="F46" t="s">
-        <v>370</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H46" t="str">
-        <f>菜单标签数据!$E$20</f>
-        <v>iam_label-20</v>
-      </c>
-      <c r="I46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>431</v>
-      </c>
-      <c r="F47" t="s">
-        <v>370</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H47" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>431</v>
-      </c>
-      <c r="F48" t="s">
-        <v>370</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H48" t="str">
-        <f>菜单标签数据!$E$25</f>
-        <v>iam_label-25</v>
-      </c>
-      <c r="I48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
-        <v>431</v>
-      </c>
-      <c r="F49" t="s">
-        <v>370</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H49" t="str">
-        <f>菜单标签数据!$E$20</f>
-        <v>iam_label-20</v>
-      </c>
-      <c r="I49" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
-        <v>431</v>
-      </c>
-      <c r="F50" t="s">
-        <v>370</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H50" t="str">
-        <f>菜单标签数据!$E$25</f>
-        <v>iam_label-25</v>
-      </c>
-      <c r="I50" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8316,7 +7006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8335,10 +7025,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -8353,75 +7043,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="O7" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="P7" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="Q7" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="R7" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="S7" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="T7" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="X7" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="Y7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="5:23">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="I8" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="J8" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -8454,30 +7144,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="V8" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="I9" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -8513,27 +7203,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="V9" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -8570,33 +7260,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="V10" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="Y10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="5:25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="G11" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="H11" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -8633,33 +7323,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="V11" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="Y11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="5:25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="F12" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="G12" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="H12" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -8696,33 +7386,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="V12" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="Y12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="5:25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="H13" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -8759,36 +7449,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="V13" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="Y13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="5:23">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H14" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="J14" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8822,16 +7512,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="V14" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8839,33 +7529,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="H16" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="I16" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8876,18 +7566,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I17" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J17" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8898,18 +7588,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I18" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J18" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8920,18 +7610,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I19" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J19" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8942,18 +7632,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I20" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J20" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8964,18 +7654,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I21" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J21" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8986,18 +7676,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I22" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J22" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -9008,18 +7698,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I23" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J23" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -9030,18 +7720,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I24" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J24" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -9052,18 +7742,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I25" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J25" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -9074,18 +7764,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I26" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -9096,18 +7786,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I27" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J27" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -9118,18 +7808,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I28" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J28" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -9140,18 +7830,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I29" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J29" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -9162,18 +7852,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I30" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J30" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -9184,18 +7874,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="I31" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J31" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -9206,18 +7896,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I32" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J32" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -9228,18 +7918,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="I33" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J33" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -9250,18 +7940,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I34" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J34" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -9272,18 +7962,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I35" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J35" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -9294,18 +7984,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I36" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J36" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -9316,18 +8006,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I37" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J37" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -9338,18 +8028,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I38" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J38" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -9360,18 +8050,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I39" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J39" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -9382,18 +8072,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I40" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J40" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -9404,18 +8094,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I41" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J41" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -9426,18 +8116,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I42" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J42" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -9448,18 +8138,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I43" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J43" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -9470,18 +8160,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I44" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J44" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -9492,33 +8182,30 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="I45" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="J45" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9532,7 +8219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9551,66 +8238,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>359</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>360</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>361</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>362</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>363</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>364</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>365</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>366</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
-        <v>368</v>
-      </c>
       <c r="F8" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="G8" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -9622,56 +8309,56 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" t="s">
+        <v>506</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>373</v>
       </c>
-      <c r="F9" t="s">
-        <v>541</v>
-      </c>
-      <c r="G9" t="s">
-        <v>538</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J9" t="s">
-        <v>542</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>376</v>
-      </c>
       <c r="F10" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="G10" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J10" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="K10" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -9683,27 +8370,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="G11" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J11" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="K11" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9715,187 +8402,187 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K12" t="s">
+        <v>513</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" t="s">
+        <v>515</v>
+      </c>
+      <c r="K13" t="s">
+        <v>516</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>381</v>
       </c>
-      <c r="F12" t="s">
-        <v>548</v>
-      </c>
-      <c r="G12" t="s">
-        <v>538</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>371</v>
-      </c>
-      <c r="J12" t="s">
-        <v>549</v>
-      </c>
-      <c r="K12" t="s">
-        <v>549</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+      <c r="F14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>370</v>
+      </c>
+      <c r="J14" t="s">
+        <v>518</v>
+      </c>
+      <c r="K14" t="s">
+        <v>448</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" t="s">
+        <v>520</v>
+      </c>
+      <c r="K15" t="s">
+        <v>521</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>370</v>
+      </c>
+      <c r="J16" t="s">
+        <v>523</v>
+      </c>
+      <c r="K16" t="s">
+        <v>524</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" t="s">
         <v>384</v>
       </c>
-      <c r="F13" t="s">
-        <v>550</v>
-      </c>
-      <c r="G13" t="s">
-        <v>538</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>371</v>
-      </c>
-      <c r="J13" t="s">
-        <v>551</v>
-      </c>
-      <c r="K13" t="s">
-        <v>552</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
-        <v>387</v>
-      </c>
-      <c r="F14" t="s">
-        <v>553</v>
-      </c>
-      <c r="G14" t="s">
-        <v>538</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>371</v>
-      </c>
-      <c r="J14" t="s">
-        <v>554</v>
-      </c>
-      <c r="K14" t="s">
-        <v>484</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
-        <v>390</v>
-      </c>
-      <c r="F15" t="s">
-        <v>555</v>
-      </c>
-      <c r="G15" t="s">
-        <v>538</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" t="s">
-        <v>556</v>
-      </c>
-      <c r="K15" t="s">
-        <v>557</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
-        <v>393</v>
-      </c>
-      <c r="F16" t="s">
-        <v>558</v>
-      </c>
-      <c r="G16" t="s">
-        <v>538</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>371</v>
-      </c>
-      <c r="J16" t="s">
-        <v>559</v>
-      </c>
-      <c r="K16" t="s">
-        <v>560</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
-        <v>396</v>
-      </c>
       <c r="F17" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="G17" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J17" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="K17" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9907,27 +8594,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F18" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="G18" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J18" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="K18" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9939,27 +8626,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="G19" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J19" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="K19" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -9971,7 +8658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -9979,33 +8666,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="I21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F22" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -10016,15 +8703,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F23" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -10035,15 +8722,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -10054,15 +8741,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -10073,15 +8760,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -10092,15 +8779,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F27" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -10111,15 +8798,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -10130,15 +8817,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F29" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -10149,15 +8836,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -10168,15 +8855,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F31" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -10187,15 +8874,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F32" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -10206,15 +8893,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F33" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -10225,15 +8912,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F34" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -10244,15 +8931,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F35" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -10263,12 +8950,12 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114EDF38-4EB1-4AAA-9A4C-35528F106DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="534">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -57,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -70,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -127,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -159,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -178,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -197,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -219,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -240,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -261,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -282,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -303,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -315,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -334,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -346,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -365,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -384,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -403,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -422,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -470,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -489,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -508,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -527,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -539,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -558,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -577,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -597,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -616,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -636,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -655,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -667,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -686,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -705,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -729,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -748,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -767,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -786,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -805,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -817,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -836,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -847,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -868,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -879,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -898,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -917,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -941,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -960,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -980,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1000,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1020,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1041,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1061,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1096,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1117,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1129,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1148,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1169,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1188,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1201,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1220,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1239,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1258,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1273,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1292,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1311,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1330,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1349,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1365,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1375,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1394,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1410,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1420,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1439,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1454,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1473,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1492,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1512,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1536,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1555,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1574,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1594,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1615,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1626,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1636,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1648,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1667,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1686,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1705,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1725,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1744,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1763,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1783,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1802,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1821,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1840,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1860,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1872,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1883,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1893,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1905,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1924,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1936,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1955,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1975,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2219,7 +2107,7 @@
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
-    <t>协作</t>
+    <t>敏捷</t>
   </si>
   <si>
     <t>XZ</t>
@@ -2966,502 +2854,503 @@
     <t>标识组织层菜单</t>
   </si>
   <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>SITE_MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>标识平台层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-20</t>
+  </si>
+  <si>
+    <t>TENANT_GENERAL</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>N_GENERAL_PROJECT_MENU</t>
+  </si>
+  <si>
+    <t>标识项目层通用菜单</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
     <t>iam_label-9</t>
   </si>
   <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
     <t>iam_label-10</t>
   </si>
   <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>iam_label-11</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
-  </si>
-  <si>
-    <t>iam_label-12</t>
-  </si>
-  <si>
-    <t>SITE_MENU</t>
-  </si>
-  <si>
-    <t>标识平台层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
   </si>
   <si>
     <t>iam_label-14</t>
   </si>
   <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
     <t>iam_label-15</t>
   </si>
   <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
     <t>iam_label-16</t>
   </si>
   <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
     <t>iam_label-17</t>
   </si>
   <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
     <t>iam_label-18</t>
   </si>
   <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
     <t>iam_label-19</t>
   </si>
   <si>
-    <t>iam_label-20</t>
-  </si>
-  <si>
-    <t>TENANT_GENERAL</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>iam_role</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>h_inherit_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_assign_level</t>
-  </si>
-  <si>
-    <t>h_parent_role_assign_level_val</t>
-  </si>
-  <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>is_modified</t>
-  </si>
-  <si>
-    <t>is_enable_forbidden</t>
-  </si>
-  <si>
-    <t>is_built_in</t>
-  </si>
-  <si>
-    <t>is_assignable</t>
-  </si>
-  <si>
-    <t>h_inherit_level_path</t>
-  </si>
-  <si>
-    <t>#created_by_tenant_id</t>
-  </si>
-  <si>
-    <t>tpl_role_name:zh_CN</t>
-  </si>
-  <si>
-    <t>tpl_role_name:en_US</t>
-  </si>
-  <si>
-    <t>iam_role-8</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>abcf</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>iam_role-9</t>
-  </si>
-  <si>
-    <t>租户管理员</t>
-  </si>
-  <si>
-    <t>Organization Administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-  </si>
-  <si>
-    <t>abce</t>
-  </si>
-  <si>
-    <t>iam_role-10</t>
-  </si>
-  <si>
-    <t>租户管理员模板</t>
-  </si>
-  <si>
-    <t>Tenant admin template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>Tenant Admin</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>租户成员模板</t>
-  </si>
-  <si>
-    <t>Organization Member template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>组织成员</t>
-  </si>
-  <si>
-    <t>Organization Member</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>项目管理员模板</t>
-  </si>
-  <si>
-    <t>Project Admin template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>项目所有者</t>
-  </si>
-  <si>
-    <t>Project Admin</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
-    <t>项目成员模板</t>
-  </si>
-  <si>
-    <t>Project member template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>项目成员</t>
-  </si>
-  <si>
-    <t>Project member</t>
-  </si>
-  <si>
-    <t>iam_role-14</t>
-  </si>
-  <si>
-    <t>平台开发者</t>
-  </si>
-  <si>
-    <t>role/site/default/developer</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>角色权限</t>
-  </si>
-  <si>
-    <t>iam_role_permission</t>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#permission_id</t>
-  </si>
-  <si>
-    <t>h_create_flag</t>
-  </si>
-  <si>
-    <t>h_inherit_flag</t>
-  </si>
-  <si>
-    <t>iam_role_permission-17</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>iam_role_permission-18</t>
-  </si>
-  <si>
-    <t>iam_role_permission-19</t>
-  </si>
-  <si>
-    <t>iam_role_permission-20</t>
-  </si>
-  <si>
-    <t>iam_role_permission-21</t>
-  </si>
-  <si>
-    <t>iam_role_permission-22</t>
-  </si>
-  <si>
-    <t>iam_role_permission-23</t>
-  </si>
-  <si>
-    <t>iam_role_permission-24</t>
-  </si>
-  <si>
-    <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
-  </si>
-  <si>
-    <t>iam_role_permission-28</t>
-  </si>
-  <si>
-    <t>iam_role_permission-29</t>
-  </si>
-  <si>
-    <t>iam_role_permission-30</t>
-  </si>
-  <si>
-    <t>iam_role_permission-31</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>iam_role_permission-32</t>
-  </si>
-  <si>
-    <t>iam_role_permission-33</t>
-  </si>
-  <si>
-    <t>iam_role_permission-34</t>
-  </si>
-  <si>
-    <t>iam_role_permission-35</t>
-  </si>
-  <si>
-    <t>iam_role_permission-36</t>
-  </si>
-  <si>
-    <t>iam_role_permission-37</t>
-  </si>
-  <si>
-    <t>iam_role_permission-38</t>
-  </si>
-  <si>
-    <t>iam_role_permission-39</t>
-  </si>
-  <si>
-    <t>iam_role_permission-40</t>
-  </si>
-  <si>
-    <t>iam_role_permission-41</t>
-  </si>
-  <si>
-    <t>iam_role_permission-42</t>
-  </si>
-  <si>
-    <t>iam_role_permission-43</t>
-  </si>
-  <si>
-    <t>iam_role_permission-44</t>
-  </si>
-  <si>
-    <t>iam_role_permission-45</t>
-  </si>
-  <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
-    <t>标识内置模板角色</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE</t>
-  </si>
-  <si>
-    <t>标识租户层角色</t>
-  </si>
-  <si>
-    <t>Tenant Role</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识租户管理员角色</t>
-  </si>
-  <si>
-    <t>PROJECT_ROLE</t>
-  </si>
-  <si>
-    <t>标识项目层角色</t>
-  </si>
-  <si>
-    <t>Project Role</t>
-  </si>
-  <si>
-    <t>PROJECT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识项目管理员角色</t>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识租户成员角色</t>
-  </si>
-  <si>
-    <t>Tenant Member</t>
-  </si>
-  <si>
-    <t>PROJECT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识项目成员角色</t>
-  </si>
-  <si>
-    <t>Project Member</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>GITLAB_OWNER</t>
-  </si>
-  <si>
-    <t>标识gitlab_owner</t>
-  </si>
-  <si>
     <t>GITLAB_DEVELOPER</t>
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>N_GENERAL_PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目层通用菜单</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3472,25 +3361,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3530,6 +3425,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3558,14 +3604,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3574,50 +3618,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3648,8 +3650,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3750,51 +3938,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3804,42 +4253,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3912,9 +4388,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4172,267 +4645,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="14" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="23" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="25" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="28" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="28" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="28" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="63.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4446,7 +4922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4534,7 +5010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4581,7 +5057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4635,7 +5111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -4686,7 +5162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4737,7 +5213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -4785,7 +5261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -4833,7 +5309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -4881,7 +5357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -4929,7 +5405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>121</v>
       </c>
@@ -4954,7 +5430,7 @@
       <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="8">
         <v>10</v>
       </c>
       <c r="N16" t="s">
@@ -5325,27 +5801,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView topLeftCell="E99" workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="34.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5359,7 +5836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5393,7 +5870,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>157</v>
       </c>
@@ -5405,7 +5882,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>159</v>
       </c>
@@ -5417,7 +5894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>161</v>
       </c>
@@ -5429,7 +5906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>163</v>
       </c>
@@ -5441,7 +5918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>165</v>
       </c>
@@ -5453,7 +5930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>167</v>
       </c>
@@ -5465,7 +5942,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>169</v>
       </c>
@@ -5477,7 +5954,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>171</v>
       </c>
@@ -5489,7 +5966,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>173</v>
       </c>
@@ -6618,28 +7095,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="22.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6653,7 +7131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6711,7 +7189,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>367</v>
       </c>
@@ -6743,12 +7221,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
         <v>369</v>
@@ -6769,12 +7247,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
         <v>369</v>
@@ -6783,13 +7261,13 @@
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6801,12 +7279,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
         <v>369</v>
@@ -6815,7 +7293,7 @@
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -6827,51 +7305,51 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="31" t="s">
+    <row r="12" spans="5:15">
+      <c r="E12" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="31">
+      <c r="J12" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="5">
         <v>1</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15">
+    <row r="13" spans="5:15">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6879,30 +7357,30 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
         <v>390</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>396</v>
       </c>
       <c r="F15" t="s">
         <v>369</v>
@@ -6915,13 +7393,13 @@
         <f>菜单标签数据!$E$11</f>
         <v>iam_label-20</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F16" t="s">
         <v>369</v>
@@ -6935,12 +7413,12 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F17" t="s">
         <v>369</v>
@@ -6954,12 +7432,12 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
         <v>369</v>
@@ -6973,17 +7451,18 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6992,7 +7471,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7006,7 +7485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7025,10 +7504,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7043,7 +7522,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J7" t="s">
         <v>360</v>
@@ -7052,66 +7531,66 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>400</v>
+      </c>
+      <c r="R7" t="s">
         <v>401</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="T7" t="s">
         <v>403</v>
-      </c>
-      <c r="O7" t="s">
-        <v>404</v>
-      </c>
-      <c r="P7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>406</v>
-      </c>
-      <c r="R7" t="s">
-        <v>407</v>
-      </c>
-      <c r="S7" t="s">
-        <v>408</v>
-      </c>
-      <c r="T7" t="s">
-        <v>409</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>404</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="X7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
+      <c r="E8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" t="s">
         <v>410</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="H8" t="s">
         <v>411</v>
       </c>
-      <c r="X7" t="s">
+      <c r="I8" t="s">
         <v>412</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="J8" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="E8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H8" t="s">
-        <v>417</v>
-      </c>
-      <c r="I8" t="s">
-        <v>418</v>
-      </c>
-      <c r="J8" t="s">
-        <v>419</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7144,30 +7623,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
+        <v>411</v>
+      </c>
+      <c r="V8" t="s">
+        <v>411</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23">
+      <c r="E9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>416</v>
+      </c>
+      <c r="H9" t="s">
         <v>417</v>
       </c>
-      <c r="V8" t="s">
-        <v>417</v>
-      </c>
-      <c r="W8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>420</v>
-      </c>
-      <c r="F9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G9" t="s">
-        <v>422</v>
-      </c>
-      <c r="H9" t="s">
-        <v>423</v>
-      </c>
       <c r="I9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -7203,27 +7682,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="V9" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -7260,33 +7739,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
+        <v>423</v>
+      </c>
+      <c r="V10" t="s">
+        <v>424</v>
+      </c>
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
+      <c r="E11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" t="s">
         <v>429</v>
       </c>
-      <c r="V10" t="s">
+      <c r="H11" t="s">
         <v>430</v>
-      </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H11" t="s">
-        <v>436</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -7323,33 +7802,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
+        <v>431</v>
+      </c>
+      <c r="V11" t="s">
+        <v>432</v>
+      </c>
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
+      <c r="E12" t="s">
+        <v>435</v>
+      </c>
+      <c r="F12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G12" t="s">
         <v>437</v>
       </c>
-      <c r="V11" t="s">
+      <c r="H12" t="s">
         <v>438</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>441</v>
-      </c>
-      <c r="F12" t="s">
-        <v>442</v>
-      </c>
-      <c r="G12" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" t="s">
-        <v>444</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -7386,33 +7865,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
+        <v>439</v>
+      </c>
+      <c r="V12" t="s">
+        <v>440</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
+      <c r="E13" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" t="s">
         <v>445</v>
       </c>
-      <c r="V12" t="s">
+      <c r="H13" t="s">
         <v>446</v>
-      </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>449</v>
-      </c>
-      <c r="F13" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" t="s">
-        <v>451</v>
-      </c>
-      <c r="H13" t="s">
-        <v>452</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -7449,36 +7928,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
+        <v>447</v>
+      </c>
+      <c r="V13" t="s">
+        <v>448</v>
+      </c>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
+      <c r="E14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" t="s">
         <v>453</v>
       </c>
-      <c r="V13" t="s">
-        <v>454</v>
-      </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" t="s">
-        <v>458</v>
-      </c>
-      <c r="H14" t="s">
-        <v>459</v>
-      </c>
       <c r="J14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7512,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="V14" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7529,25 +8008,25 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H16" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>358</v>
@@ -7555,7 +8034,7 @@
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -7566,18 +8045,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J17" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7588,18 +8067,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I18" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J18" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -7610,18 +8089,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I19" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J19" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -7632,18 +8111,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J20" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7654,18 +8133,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I21" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J21" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7676,18 +8155,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I22" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J22" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -7698,18 +8177,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I23" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -7720,18 +8199,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -7742,18 +8221,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -7764,18 +8243,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I26" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -7786,18 +8265,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -7808,18 +8287,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J28" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -7830,18 +8309,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I29" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J29" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -7852,18 +8331,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I30" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -7874,18 +8353,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I31" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J31" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -7896,18 +8375,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I32" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J32" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -7918,18 +8397,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I33" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J33" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -7940,18 +8419,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I34" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J34" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -7962,18 +8441,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I35" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J35" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -7984,18 +8463,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I36" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J36" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8006,18 +8485,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J37" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8028,18 +8507,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I38" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8050,18 +8529,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I39" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J39" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8072,18 +8551,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I40" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J40" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8094,18 +8573,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I41" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J41" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8116,18 +8595,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I42" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J42" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8138,18 +8617,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I43" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J43" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8160,18 +8639,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I44" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J44" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8182,30 +8661,33 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I45" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J45" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8219,7 +8701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8277,15 +8759,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -8294,10 +8776,10 @@
         <v>370</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -8309,24 +8791,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="F9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -8338,15 +8820,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>373</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -8355,10 +8837,10 @@
         <v>370</v>
       </c>
       <c r="J10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -8370,15 +8852,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -8387,10 +8869,10 @@
         <v>370</v>
       </c>
       <c r="J11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -8402,15 +8884,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -8419,10 +8901,10 @@
         <v>370</v>
       </c>
       <c r="J12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -8434,15 +8916,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>380</v>
       </c>
       <c r="F13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G13" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -8451,10 +8933,10 @@
         <v>370</v>
       </c>
       <c r="J13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -8466,15 +8948,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>381</v>
+        <v>513</v>
       </c>
       <c r="F14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G14" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -8483,10 +8965,10 @@
         <v>370</v>
       </c>
       <c r="J14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -8498,15 +8980,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>382</v>
+        <v>516</v>
       </c>
       <c r="F15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G15" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -8515,10 +8997,10 @@
         <v>370</v>
       </c>
       <c r="J15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -8530,15 +9012,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>383</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G16" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -8547,10 +9029,10 @@
         <v>370</v>
       </c>
       <c r="J16" t="s">
+        <v>522</v>
+      </c>
+      <c r="K16" t="s">
         <v>523</v>
-      </c>
-      <c r="K16" t="s">
-        <v>524</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -8562,15 +9044,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>384</v>
+        <v>524</v>
       </c>
       <c r="F17" t="s">
         <v>525</v>
       </c>
       <c r="G17" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -8594,15 +9076,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>385</v>
+        <v>528</v>
       </c>
       <c r="F18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G18" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -8611,10 +9093,10 @@
         <v>370</v>
       </c>
       <c r="J18" t="s">
+        <v>530</v>
+      </c>
+      <c r="K18" t="s">
         <v>529</v>
-      </c>
-      <c r="K18" t="s">
-        <v>528</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -8626,15 +9108,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>386</v>
+        <v>531</v>
       </c>
       <c r="F19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G19" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -8643,10 +9125,10 @@
         <v>370</v>
       </c>
       <c r="J19" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -8658,7 +9140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8666,33 +9148,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I21" t="s">
         <v>389</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
         <v>390</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="E22" t="s">
-        <v>396</v>
-      </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -8703,15 +9185,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -8722,15 +9204,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -8741,15 +9223,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -8760,15 +9242,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -8779,15 +9261,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -8798,15 +9280,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -8817,15 +9299,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -8836,15 +9318,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -8855,15 +9337,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -8874,15 +9356,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -8893,15 +9375,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -8912,15 +9394,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F34" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -8931,15 +9413,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F35" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -8950,12 +9432,12 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -2107,7 +2107,7 @@
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
-    <t>敏捷</t>
+    <t>协作</t>
   </si>
   <si>
     <t>XZ</t>
@@ -3345,10 +3345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3428,7 +3428,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3439,32 +3439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3472,6 +3463,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3489,6 +3487,22 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3515,8 +3529,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3524,37 +3555,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3652,13 +3652,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,19 +3694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3700,19 +3724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,91 +3736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3826,13 +3760,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3942,6 +3942,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3959,6 +3968,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3983,30 +4007,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4039,148 +4039,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4897,8 +4897,8 @@
   <sheetPr/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\knowledge-service-0518\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12D4D7-2803-4E5A-A2A5-BAC2E118AF2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,6 +49,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +100,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +138,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +208,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +293,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +326,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +414,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +433,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +481,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +500,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +828,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +909,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +991,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1011,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1031,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1052,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1072,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1199,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1284,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1303,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1322,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1605,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1755,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1794,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1851,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2122,9 +2245,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>/knowledge/project</t>
   </si>
   <si>
@@ -3338,19 +3458,17 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>chrome_reader_mode-o</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3361,25 +3479,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3425,157 +3543,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3604,12 +3571,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3618,8 +3587,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3650,194 +3654,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3938,254 +3756,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4206,20 +3782,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4253,9 +3817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4263,59 +3824,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4388,6 +3918,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4645,270 +4178,267 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="63.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4922,7 +4452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5010,7 +4540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5057,7 +4587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -5111,7 +4641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -5162,7 +4692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -5213,7 +4743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -5261,7 +4791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -5309,7 +4839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -5357,7 +4887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -5405,7 +4935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>121</v>
       </c>
@@ -5487,20 +5017,20 @@
       <c r="N17" t="s">
         <v>82</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="P17" t="s">
         <v>128</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s">
         <v>129</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>130</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
@@ -5514,16 +5044,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
         <v>131</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>132</v>
       </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -5548,7 +5078,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
@@ -5562,16 +5092,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
         <v>135</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>136</v>
       </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -5596,7 +5126,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
@@ -5610,16 +5140,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
         <v>139</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>140</v>
       </c>
-      <c r="G20" t="s">
-        <v>141</v>
-      </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -5644,7 +5174,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T20" t="s">
         <v>80</v>
@@ -5658,16 +5188,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" t="s">
-        <v>145</v>
-      </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
@@ -5692,7 +5222,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T21" t="s">
         <v>80</v>
@@ -5706,10 +5236,10 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" t="s">
-        <v>148</v>
       </c>
       <c r="G22" t="s">
         <v>106</v>
@@ -5740,7 +5270,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T22" t="s">
         <v>80</v>
@@ -5754,10 +5284,10 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
         <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
       </c>
       <c r="G23" t="s">
         <v>110</v>
@@ -5788,7 +5318,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T23" t="s">
         <v>80</v>
@@ -5801,28 +5331,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView topLeftCell="E99" workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="34.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5836,7 +5365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5855,1254 +5384,1253 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" t="s">
-        <v>157</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" t="s">
-        <v>159</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" t="s">
-        <v>161</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" t="s">
-        <v>163</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" t="s">
-        <v>165</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" t="s">
-        <v>167</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" t="s">
-        <v>169</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" t="s">
-        <v>171</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" t="s">
-        <v>173</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7111,13 +6639,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="22.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="12.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7131,7 +6659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7150,179 +6678,179 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>358</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>359</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>360</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>361</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>362</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>363</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>364</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>365</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>367</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
         <v>369</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>370</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>371</v>
       </c>
-      <c r="K8" t="s">
+      <c r="F9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" t="s">
         <v>368</v>
       </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>373</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" t="s">
+        <v>376</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>375</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>370</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G10" t="s">
-        <v>369</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>376</v>
-      </c>
-      <c r="J10" t="s">
-        <v>377</v>
-      </c>
-      <c r="K10" t="s">
-        <v>377</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>376</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -7336,7 +6864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -7349,7 +6877,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -7357,33 +6885,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>388</v>
       </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" t="s">
-        <v>390</v>
-      </c>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -7394,15 +6922,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7413,15 +6941,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7432,15 +6960,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7451,18 +6979,17 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -7471,7 +6998,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7485,7 +7012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7504,10 +7031,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7522,75 +7049,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>397</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>398</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>399</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>400</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>401</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
-      </c>
-      <c r="T7" t="s">
-        <v>403</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>403</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" t="s">
         <v>405</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>406</v>
       </c>
-      <c r="Y7" t="s">
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="8" spans="5:23">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>408</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>409</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>410</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>411</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>412</v>
-      </c>
-      <c r="J8" t="s">
-        <v>413</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7623,30 +7150,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" t="s">
         <v>414</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>415</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>416</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>417</v>
-      </c>
-      <c r="I9" t="s">
-        <v>418</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -7682,27 +7209,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" t="s">
         <v>419</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>420</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>421</v>
-      </c>
-      <c r="H10" t="s">
-        <v>422</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -7739,33 +7266,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
+        <v>422</v>
+      </c>
+      <c r="V10" t="s">
         <v>423</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
         <v>424</v>
       </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>425</v>
       </c>
-      <c r="Y10" t="s">
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="11" spans="5:25">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>427</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>428</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>429</v>
-      </c>
-      <c r="H11" t="s">
-        <v>430</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -7802,33 +7329,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
+        <v>430</v>
+      </c>
+      <c r="V11" t="s">
         <v>431</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
         <v>432</v>
       </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>433</v>
       </c>
-      <c r="Y11" t="s">
+    </row>
+    <row r="12" spans="1:25">
+      <c r="E12" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="12" spans="5:25">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>435</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>436</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>437</v>
-      </c>
-      <c r="H12" t="s">
-        <v>438</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -7865,33 +7392,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
+        <v>438</v>
+      </c>
+      <c r="V12" t="s">
         <v>439</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
         <v>440</v>
       </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>441</v>
       </c>
-      <c r="Y12" t="s">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="E13" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="13" spans="5:25">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>443</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>444</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>445</v>
-      </c>
-      <c r="H13" t="s">
-        <v>446</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -7928,36 +7455,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
+        <v>446</v>
+      </c>
+      <c r="V13" t="s">
         <v>447</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
         <v>448</v>
       </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>449</v>
       </c>
-      <c r="Y13" t="s">
+    </row>
+    <row r="14" spans="1:25">
+      <c r="E14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="14" spans="5:23">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>451</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" t="s">
         <v>452</v>
       </c>
-      <c r="G14" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" t="s">
-        <v>453</v>
-      </c>
       <c r="J14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7991,16 +7518,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
+        <v>453</v>
+      </c>
+      <c r="V14" t="s">
         <v>454</v>
-      </c>
-      <c r="V14" t="s">
-        <v>455</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8008,33 +7535,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>459</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>460</v>
       </c>
-      <c r="I16" t="s">
-        <v>461</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8045,18 +7572,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
+        <v>462</v>
+      </c>
+      <c r="I17" t="s">
         <v>463</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>464</v>
-      </c>
-      <c r="J17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8067,18 +7594,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
+        <v>462</v>
+      </c>
+      <c r="I18" t="s">
         <v>463</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>464</v>
-      </c>
-      <c r="J18" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8089,18 +7616,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
+        <v>462</v>
+      </c>
+      <c r="I19" t="s">
         <v>463</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>464</v>
-      </c>
-      <c r="J19" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8111,18 +7638,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
+        <v>462</v>
+      </c>
+      <c r="I20" t="s">
         <v>463</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>464</v>
-      </c>
-      <c r="J20" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8133,18 +7660,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
+        <v>462</v>
+      </c>
+      <c r="I21" t="s">
         <v>463</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>464</v>
-      </c>
-      <c r="J21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8155,18 +7682,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" t="s">
         <v>463</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>464</v>
-      </c>
-      <c r="J22" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8177,18 +7704,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I23" t="s">
         <v>463</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>464</v>
-      </c>
-      <c r="J23" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8199,18 +7726,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
+        <v>462</v>
+      </c>
+      <c r="I24" t="s">
         <v>463</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>464</v>
-      </c>
-      <c r="J24" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8221,18 +7748,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
+        <v>462</v>
+      </c>
+      <c r="I25" t="s">
         <v>463</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>464</v>
-      </c>
-      <c r="J25" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -8243,18 +7770,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
+        <v>462</v>
+      </c>
+      <c r="I26" t="s">
         <v>463</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>464</v>
-      </c>
-      <c r="J26" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -8265,18 +7792,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
+        <v>462</v>
+      </c>
+      <c r="I27" t="s">
         <v>463</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>464</v>
-      </c>
-      <c r="J27" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -8287,18 +7814,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
+        <v>462</v>
+      </c>
+      <c r="I28" t="s">
         <v>463</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>464</v>
-      </c>
-      <c r="J28" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -8309,18 +7836,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
+        <v>462</v>
+      </c>
+      <c r="I29" t="s">
         <v>463</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>464</v>
-      </c>
-      <c r="J29" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -8331,18 +7858,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
+        <v>462</v>
+      </c>
+      <c r="I30" t="s">
         <v>463</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>464</v>
-      </c>
-      <c r="J30" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -8353,18 +7880,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I31" t="s">
+        <v>463</v>
+      </c>
+      <c r="J31" t="s">
         <v>464</v>
-      </c>
-      <c r="J31" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -8375,18 +7902,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
+        <v>462</v>
+      </c>
+      <c r="I32" t="s">
         <v>463</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>464</v>
-      </c>
-      <c r="J32" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -8397,18 +7924,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I33" t="s">
+        <v>463</v>
+      </c>
+      <c r="J33" t="s">
         <v>464</v>
-      </c>
-      <c r="J33" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -8419,18 +7946,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I34" t="s">
         <v>463</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>464</v>
-      </c>
-      <c r="J34" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8441,18 +7968,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
+        <v>462</v>
+      </c>
+      <c r="I35" t="s">
         <v>463</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>464</v>
-      </c>
-      <c r="J35" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -8463,18 +7990,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
+        <v>462</v>
+      </c>
+      <c r="I36" t="s">
         <v>463</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>464</v>
-      </c>
-      <c r="J36" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8485,18 +8012,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
+        <v>462</v>
+      </c>
+      <c r="I37" t="s">
         <v>463</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>464</v>
-      </c>
-      <c r="J37" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8507,18 +8034,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
+        <v>462</v>
+      </c>
+      <c r="I38" t="s">
         <v>463</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>464</v>
-      </c>
-      <c r="J38" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8529,18 +8056,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
+        <v>462</v>
+      </c>
+      <c r="I39" t="s">
         <v>463</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>464</v>
-      </c>
-      <c r="J39" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8551,18 +8078,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
+        <v>462</v>
+      </c>
+      <c r="I40" t="s">
         <v>463</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>464</v>
-      </c>
-      <c r="J40" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8573,18 +8100,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
+        <v>462</v>
+      </c>
+      <c r="I41" t="s">
         <v>463</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>464</v>
-      </c>
-      <c r="J41" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8595,18 +8122,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
+        <v>462</v>
+      </c>
+      <c r="I42" t="s">
         <v>463</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>464</v>
-      </c>
-      <c r="J42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8617,18 +8144,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
+        <v>462</v>
+      </c>
+      <c r="I43" t="s">
         <v>463</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>464</v>
-      </c>
-      <c r="J43" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8639,18 +8166,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
+        <v>462</v>
+      </c>
+      <c r="I44" t="s">
         <v>463</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>464</v>
-      </c>
-      <c r="J44" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8661,33 +8188,30 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I45" t="s">
+        <v>463</v>
+      </c>
+      <c r="J45" t="s">
         <v>464</v>
       </c>
-      <c r="J45" t="s">
-        <v>465</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8701,7 +8225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8720,415 +8244,415 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>358</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>359</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>360</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>361</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>362</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>363</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>364</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>365</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
-        <v>367</v>
-      </c>
       <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" t="s">
         <v>495</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J8" t="s">
         <v>496</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>370</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>497</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>498</v>
       </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>499</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J9" t="s">
         <v>500</v>
       </c>
-      <c r="G9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>376</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>501</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>502</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" t="s">
         <v>503</v>
       </c>
-      <c r="G10" t="s">
-        <v>496</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>370</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>503</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" t="s">
         <v>504</v>
       </c>
-      <c r="K10" t="s">
-        <v>504</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" t="s">
         <v>505</v>
       </c>
-      <c r="G11" t="s">
-        <v>496</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>506</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" t="s">
         <v>507</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>374</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>495</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" t="s">
         <v>508</v>
       </c>
-      <c r="G12" t="s">
-        <v>496</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>508</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" t="s">
         <v>509</v>
       </c>
-      <c r="K12" t="s">
-        <v>509</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>495</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
         <v>510</v>
       </c>
-      <c r="G13" t="s">
-        <v>496</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>370</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>511</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>512</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>513</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>495</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>369</v>
+      </c>
+      <c r="J14" t="s">
         <v>514</v>
       </c>
-      <c r="G14" t="s">
-        <v>496</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>370</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>441</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>515</v>
       </c>
-      <c r="K14" t="s">
-        <v>442</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>516</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" t="s">
         <v>517</v>
       </c>
-      <c r="G15" t="s">
-        <v>496</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>370</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>518</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
         <v>519</v>
       </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>520</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" t="s">
         <v>521</v>
       </c>
-      <c r="G16" t="s">
-        <v>496</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>370</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>522</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" t="s">
         <v>523</v>
       </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>524</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>495</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" t="s">
         <v>525</v>
       </c>
-      <c r="G17" t="s">
-        <v>496</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>370</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>526</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="E18" t="s">
         <v>527</v>
       </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>528</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>495</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>369</v>
+      </c>
+      <c r="J18" t="s">
         <v>529</v>
       </c>
-      <c r="G18" t="s">
-        <v>496</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>370</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>528</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="E19" t="s">
         <v>530</v>
       </c>
-      <c r="K18" t="s">
-        <v>529</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>531</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" t="s">
         <v>532</v>
       </c>
-      <c r="G19" t="s">
-        <v>496</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>370</v>
-      </c>
-      <c r="J19" t="s">
-        <v>533</v>
-      </c>
       <c r="K19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -9140,7 +8664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -9148,33 +8672,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" t="s">
         <v>388</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="22" spans="1:15">
+      <c r="E22" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>390</v>
-      </c>
       <c r="F22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -9185,15 +8709,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -9204,15 +8728,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -9223,15 +8747,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -9242,15 +8766,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -9261,15 +8785,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -9280,15 +8804,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -9299,15 +8823,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -9318,15 +8842,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -9337,15 +8861,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -9356,15 +8880,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -9375,15 +8899,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -9394,15 +8918,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -9413,15 +8937,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -9432,12 +8956,12 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\knowledge-service-0518\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/knowledgebase-service/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12D4D7-2803-4E5A-A2A5-BAC2E118AF2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D081E-0A52-C842-9B08-33CA89BB2430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="525">
   <si>
     <r>
       <rPr>
@@ -59,6 +59,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -91,6 +92,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -110,6 +112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -129,6 +132,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -180,6 +184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -199,6 +204,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -218,6 +224,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -241,6 +248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -262,6 +270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -284,6 +293,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -305,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -336,6 +347,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -367,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -386,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -405,6 +419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -424,6 +439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -443,6 +459,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -472,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -491,6 +509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -510,6 +529,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -529,6 +549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -560,6 +581,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -579,6 +601,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -598,6 +621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -618,6 +642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -637,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -657,6 +683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -688,6 +715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -707,6 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -731,6 +760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -750,6 +780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -769,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -788,6 +820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -807,6 +840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -838,6 +872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -869,6 +904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -900,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -919,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -943,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -962,6 +1001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -981,6 +1021,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1001,6 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1021,6 +1063,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1041,6 +1084,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1062,6 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1082,6 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1098,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1119,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1150,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1169,6 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1190,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1222,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1241,6 +1293,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1260,6 +1313,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1294,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1313,6 +1368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1332,6 +1388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1351,6 +1408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1396,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1441,6 +1500,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1475,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1494,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1513,6 +1575,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1533,6 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1557,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1576,6 +1641,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1595,6 +1661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1615,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1669,6 +1737,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1688,6 +1757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1707,6 +1777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1727,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1746,6 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1765,6 +1838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1784,6 +1858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1804,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1823,6 +1899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1842,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1861,6 +1939,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1926,6 +2005,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1957,6 +2037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1976,6 +2057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -3343,27 +3425,12 @@
     <t>iam_role_permission-45</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
     <t>iam_label-9</t>
   </si>
   <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
     <t>iam_label-10</t>
   </si>
   <si>
@@ -3430,30 +3497,12 @@
     <t>Project Member</t>
   </si>
   <si>
-    <t>iam_label-17</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>iam_label-18</t>
-  </si>
-  <si>
     <t>GITLAB_OWNER</t>
   </si>
   <si>
     <t>标识gitlab_owner</t>
   </si>
   <si>
-    <t>iam_label-19</t>
-  </si>
-  <si>
     <t>GITLAB_DEVELOPER</t>
   </si>
   <si>
@@ -3461,14 +3510,22 @@
   </si>
   <si>
     <t>chrome_reader_mode-o</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3503,12 +3560,14 @@
       <sz val="11"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3516,36 +3575,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3565,6 +3630,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3585,33 +3651,12 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3761,7 +3806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3824,11 +3869,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3839,7 +3885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4188,36 +4234,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -4225,17 +4271,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
@@ -4272,7 +4318,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="57">
       <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="57">
       <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
@@ -4297,7 +4343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="76">
       <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +4354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="19">
       <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
@@ -4329,7 +4375,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="38">
       <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
@@ -4346,13 +4392,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
@@ -4360,7 +4406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
@@ -4368,7 +4414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
@@ -4376,7 +4422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
@@ -4402,7 +4448,7 @@
       </c>
       <c r="E26" s="35"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="57">
       <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
@@ -4417,7 +4463,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4427,15 +4473,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+    <sheetView topLeftCell="G5" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -5017,8 +5063,8 @@
       <c r="N17" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="39" t="s">
-        <v>533</v>
+      <c r="O17" s="34" t="s">
+        <v>522</v>
       </c>
       <c r="P17" t="s">
         <v>128</v>
@@ -5331,7 +5377,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5344,10 +5390,10 @@
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6624,7 +6670,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6637,12 +6683,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6983,7 +7029,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6996,7 +7042,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
@@ -8198,18 +8244,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -8284,14 +8341,14 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="E8" t="s">
-        <v>366</v>
+      <c r="E8" s="34" t="s">
+        <v>524</v>
       </c>
       <c r="F8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" t="s">
         <v>494</v>
-      </c>
-      <c r="G8" t="s">
-        <v>495</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -8300,10 +8357,10 @@
         <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -8312,47 +8369,50 @@
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="E9" t="s">
-        <v>498</v>
+      <c r="E9" s="34" t="s">
+        <v>495</v>
       </c>
       <c r="F9" t="s">
         <v>499</v>
       </c>
       <c r="G9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>500</v>
       </c>
+      <c r="K9" t="s">
+        <v>501</v>
+      </c>
       <c r="M9" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="O9" t="s">
-        <v>82</v>
+      <c r="O9" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>501</v>
+      <c r="E10" s="34" t="s">
+        <v>496</v>
       </c>
       <c r="F10" t="s">
         <v>502</v>
       </c>
       <c r="G10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -8377,14 +8437,14 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="E11" t="s">
+      <c r="E11" s="34" t="s">
         <v>371</v>
       </c>
       <c r="F11" t="s">
         <v>504</v>
       </c>
       <c r="G11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -8404,19 +8464,19 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>80</v>
+      <c r="O11" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="E12" t="s">
+      <c r="E12" s="34" t="s">
         <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -8425,10 +8485,10 @@
         <v>369</v>
       </c>
       <c r="J12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K12" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -8441,14 +8501,14 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="E13" t="s">
+      <c r="E13" s="34" t="s">
         <v>379</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -8457,10 +8517,10 @@
         <v>369</v>
       </c>
       <c r="J13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -8473,14 +8533,14 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>512</v>
+      <c r="E14" s="34" t="s">
+        <v>507</v>
       </c>
       <c r="F14" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -8489,10 +8549,10 @@
         <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K14" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -8505,14 +8565,14 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>515</v>
+      <c r="E15" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -8521,7 +8581,7 @@
         <v>369</v>
       </c>
       <c r="J15" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K15" t="s">
         <v>518</v>
@@ -8533,18 +8593,18 @@
         <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>519</v>
+      <c r="E16" s="34" t="s">
+        <v>514</v>
       </c>
       <c r="F16" t="s">
         <v>520</v>
       </c>
       <c r="G16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -8556,7 +8616,7 @@
         <v>521</v>
       </c>
       <c r="K16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -8565,220 +8625,181 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" t="s">
-        <v>524</v>
-      </c>
-      <c r="G17" t="s">
-        <v>495</v>
-      </c>
-      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" t="s">
-        <v>525</v>
-      </c>
-      <c r="K17" t="s">
-        <v>526</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="E18" t="s">
-        <v>527</v>
-      </c>
-      <c r="F18" t="s">
-        <v>528</v>
-      </c>
-      <c r="G18" t="s">
-        <v>495</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" t="s">
-        <v>529</v>
-      </c>
-      <c r="K18" t="s">
-        <v>528</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="E19" t="s">
-        <v>530</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>531</v>
-      </c>
-      <c r="G19" t="s">
-        <v>495</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
+        <v>494</v>
+      </c>
+      <c r="G19" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H19" t="str">
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
-      </c>
-      <c r="J19" t="s">
-        <v>532</v>
-      </c>
-      <c r="K19" t="s">
-        <v>531</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="E20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H20" t="str">
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="E21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H21" t="str">
+        <f>角色标签数据!$E$10</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="E22" t="s">
         <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G22" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H22" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:9">
       <c r="E23" t="s">
         <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-9</v>
       </c>
       <c r="I23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:9">
       <c r="E24" t="s">
         <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I24" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:9">
       <c r="E25" t="s">
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G25" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:9">
       <c r="E26" t="s">
         <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H26" t="str">
         <f>角色标签数据!$E$11</f>
@@ -8788,179 +8809,122 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:9">
       <c r="E27" t="s">
         <v>389</v>
       </c>
       <c r="F27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$15</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I27" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="E28" t="s">
         <v>389</v>
       </c>
       <c r="F28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I28" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:9">
       <c r="E29" t="s">
         <v>389</v>
       </c>
       <c r="F29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G29" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:9">
       <c r="E30" t="s">
         <v>389</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H30" t="str">
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="E31" t="s">
+        <v>389</v>
+      </c>
+      <c r="F31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G31" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="H31" t="str">
         <f>角色标签数据!$E$14</f>
         <v>iam_label-14</v>
       </c>
-      <c r="I30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="E31" t="s">
-        <v>389</v>
-      </c>
-      <c r="F31" t="s">
-        <v>495</v>
-      </c>
-      <c r="G31" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="H31" t="str">
-        <f>角色标签数据!$E$18</f>
-        <v>iam_label-18</v>
-      </c>
       <c r="I31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:9">
       <c r="E32" t="s">
         <v>389</v>
       </c>
       <c r="F32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>389</v>
-      </c>
-      <c r="F33" t="s">
-        <v>495</v>
-      </c>
-      <c r="G33" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H33" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>389</v>
-      </c>
-      <c r="F34" t="s">
-        <v>495</v>
-      </c>
-      <c r="G34" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H34" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>389</v>
-      </c>
-      <c r="F35" t="s">
-        <v>495</v>
-      </c>
-      <c r="G35" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H35" t="str">
-        <f>角色标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>390</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -3270,12 +3270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3304,12 +3304,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3351,9 +3345,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3364,8 +3402,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3379,102 +3449,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3487,7 +3473,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3577,7 +3571,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3595,55 +3613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3661,13 +3637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3679,43 +3679,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3733,13 +3715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3751,13 +3739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3866,17 +3860,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3925,6 +3908,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3964,167 +3958,163 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4134,44 +4124,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4184,14 +4174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4588,10 +4578,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
     <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
     <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
@@ -4605,79 +4595,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4685,56 +4675,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4744,64 +4734,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4826,8 +4816,8 @@
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5632,50 +5622,50 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" spans="5:23">
-      <c r="E23" s="9" t="s">
+    <row r="23" s="6" customFormat="1" spans="5:23">
+      <c r="E23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="6">
         <v>0</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="6">
+        <v>80</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
         <v>0</v>
       </c>
-      <c r="N23" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="9">
+      <c r="R23" s="6">
         <v>0</v>
       </c>
-      <c r="R23" s="9">
+      <c r="S23" s="6">
         <v>0</v>
       </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7272,7 +7262,7 @@
         <f>菜单标签数据!$E$11</f>
         <v>iam_label-20</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8707,7 +8697,7 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="38" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8771,7 +8761,7 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="38" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F1663-F265-461C-A3C5-C3AD5E65D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -13,6 +19,7 @@
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
+    <sheet name="用户指引" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -20,18 +27,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="552">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +58,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +71,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +90,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +160,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +283,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +304,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +316,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +335,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +347,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +423,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +528,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +540,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +559,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +656,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +668,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +706,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +730,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +749,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +768,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +848,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +918,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +961,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1021,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1097,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1130,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1149,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1202,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1274,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1293,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1312,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1331,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1440,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1455,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1474,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1513,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1575,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1668,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1706,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1822,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1873,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1884,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1925,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3263,19 +3376,159 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>用户指引表</t>
+  </si>
+  <si>
+    <t>fd_user_guide</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>fd_user_guide-1</t>
+  </si>
+  <si>
+    <t>用户指引菜单关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel</t>
+  </si>
+  <si>
+    <t>#MENU_ID</t>
+  </si>
+  <si>
+    <t>USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel-1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户指引步骤表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>#STEP_CODE</t>
+  </si>
+  <si>
+    <t>STEP_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DOC_URL</t>
+  </si>
+  <si>
+    <t>PAGE_URL</t>
+  </si>
+  <si>
+    <t>PERMISSION_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-1</t>
+  </si>
+  <si>
+    <t>CREATE-BACKLOG</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKLOG-WORKFLOW</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_user_guide_step-3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKLOG-STATUS</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户指引步骤关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel</t>
+  </si>
+  <si>
+    <t>#USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>#STEP_ID</t>
+  </si>
+  <si>
+    <t>STEP_ORDER</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-1</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-2</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-3</t>
+  </si>
+  <si>
+    <t>知识沉淀管理</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNOWLEDGE-MANAGEMENT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何创建/设置知识库</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文档</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用文档模板</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档模板是文档创建时可以选择的预置内容，每个知识库都可以配置自己的文档模板。</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档是项目运行过程中，各种知识内容的具体载体。通常在项目中会创建各种各样的文档，作为一种知识的累积。</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库是Choerodon猪齿鱼的知识管理工具，创建知识库后，便可创建文档。</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/knowledge?type=project&amp;id= ${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3286,25 +3539,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3344,157 +3597,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3523,12 +3625,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3537,8 +3641,68 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3569,194 +3733,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3857,254 +3835,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4124,20 +3860,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4171,9 +3895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4181,60 +3902,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4307,6 +4006,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4564,271 +4266,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="63.7111111111111" customWidth="1"/>
-    <col min="7" max="7" width="19.4222222222222" customWidth="1"/>
-    <col min="11" max="11" width="14.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4842,7 +4541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:24">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4927,7 +4626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:24">
       <c r="E8" t="s">
         <v>74</v>
       </c>
@@ -4971,7 +4670,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:24">
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -5022,7 +4721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:23">
+    <row r="10" spans="1:24">
       <c r="E10" t="s">
         <v>89</v>
       </c>
@@ -5070,7 +4769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="5:23">
+    <row r="11" spans="1:24">
       <c r="E11" t="s">
         <v>95</v>
       </c>
@@ -5118,7 +4817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:23">
+    <row r="12" spans="1:24">
       <c r="E12" t="s">
         <v>100</v>
       </c>
@@ -5163,7 +4862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="5:23">
+    <row r="13" spans="1:24">
       <c r="E13" t="s">
         <v>103</v>
       </c>
@@ -5208,7 +4907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:24">
       <c r="E14" t="s">
         <v>106</v>
       </c>
@@ -5253,7 +4952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="5:23">
+    <row r="15" spans="1:24">
       <c r="E15" t="s">
         <v>109</v>
       </c>
@@ -5298,7 +4997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="5:23">
+    <row r="16" spans="1:24">
       <c r="E16" t="s">
         <v>113</v>
       </c>
@@ -5622,7 +5321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="5:23">
+    <row r="23" spans="5:23" s="6" customFormat="1">
       <c r="E23" s="6" t="s">
         <v>134</v>
       </c>
@@ -5670,28 +5369,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.2814814814815" customWidth="1"/>
-    <col min="6" max="6" width="34.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5705,7 +5403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5739,7 +5437,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -5751,7 +5449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>144</v>
       </c>
@@ -5763,7 +5461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>146</v>
       </c>
@@ -5775,7 +5473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>148</v>
       </c>
@@ -5787,7 +5485,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>150</v>
       </c>
@@ -5799,7 +5497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>152</v>
       </c>
@@ -5811,7 +5509,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -5823,7 +5521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>156</v>
       </c>
@@ -5835,7 +5533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>158</v>
       </c>
@@ -6964,14 +6662,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6980,13 +6677,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="22.1407407407407" customWidth="1"/>
-    <col min="7" max="7" width="12.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7000,7 +6697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7058,7 +6755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>352</v>
       </c>
@@ -7090,7 +6787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>357</v>
       </c>
@@ -7116,7 +6813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>359</v>
       </c>
@@ -7148,7 +6845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>363</v>
       </c>
@@ -7174,7 +6871,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="6" t="s">
         <v>365</v>
       </c>
@@ -7205,7 +6902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -7218,7 +6915,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -7247,7 +6944,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>375</v>
       </c>
@@ -7266,7 +6963,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>375</v>
       </c>
@@ -7324,14 +7021,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -7340,7 +7036,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7354,7 +7050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7442,7 +7138,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>394</v>
       </c>
@@ -7501,7 +7197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>400</v>
       </c>
@@ -7560,7 +7256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>405</v>
       </c>
@@ -7623,7 +7319,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>413</v>
       </c>
@@ -7686,7 +7382,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>421</v>
       </c>
@@ -7749,7 +7445,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>429</v>
       </c>
@@ -7812,7 +7508,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>437</v>
       </c>
@@ -7869,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8540,14 +8236,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8556,16 +8251,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.1407407407407" customWidth="1"/>
-    <col min="6" max="6" width="18.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="11.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="12.2814814814815" customWidth="1"/>
-    <col min="9" max="9" width="11.2814814814815" customWidth="1"/>
-    <col min="10" max="10" width="19.5703703703704" customWidth="1"/>
-    <col min="11" max="11" width="21.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8579,7 +8274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8637,7 +8332,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" s="5" t="s">
         <v>352</v>
       </c>
@@ -8669,7 +8364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" s="5" t="s">
         <v>484</v>
       </c>
@@ -8697,11 +8392,11 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" s="5" t="s">
         <v>488</v>
       </c>
@@ -8733,7 +8428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" s="5" t="s">
         <v>357</v>
       </c>
@@ -8761,11 +8456,11 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="5" t="s">
         <v>359</v>
       </c>
@@ -8797,7 +8492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="5" t="s">
         <v>365</v>
       </c>
@@ -8829,7 +8524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" s="5" t="s">
         <v>499</v>
       </c>
@@ -8861,7 +8556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" s="5" t="s">
         <v>503</v>
       </c>
@@ -8893,7 +8588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" s="5" t="s">
         <v>506</v>
       </c>
@@ -8954,7 +8649,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="1:9">
       <c r="E19" t="s">
         <v>375</v>
       </c>
@@ -8973,7 +8668,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
         <v>375</v>
       </c>
@@ -8992,7 +8687,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="1:9">
       <c r="E21" t="s">
         <v>375</v>
       </c>
@@ -9011,7 +8706,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:9">
       <c r="E22" t="s">
         <v>375</v>
       </c>
@@ -9030,7 +8725,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:9">
       <c r="E23" t="s">
         <v>375</v>
       </c>
@@ -9049,7 +8744,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:9">
       <c r="E24" t="s">
         <v>375</v>
       </c>
@@ -9068,7 +8763,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:9">
       <c r="E25" t="s">
         <v>375</v>
       </c>
@@ -9087,7 +8782,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:9">
       <c r="E26" t="s">
         <v>375</v>
       </c>
@@ -9106,7 +8801,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:9">
       <c r="E27" t="s">
         <v>375</v>
       </c>
@@ -9125,7 +8820,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:9">
       <c r="E28" t="s">
         <v>375</v>
       </c>
@@ -9144,7 +8839,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:9">
       <c r="E29" t="s">
         <v>375</v>
       </c>
@@ -9163,7 +8858,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:9">
       <c r="E30" t="s">
         <v>375</v>
       </c>
@@ -9182,7 +8877,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:9">
       <c r="E31" t="s">
         <v>375</v>
       </c>
@@ -9201,7 +8896,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:9">
       <c r="E32" t="s">
         <v>375</v>
       </c>
@@ -9221,8 +8916,449 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DB666-AF2C-4E12-AB05-D5ED11F25156}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="G14" s="43" t="str">
+        <f>用户指引!$E$8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="K18" s="43" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="K19" s="43" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="K20" s="43" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="43" t="str">
+        <f>用户指引!$E$8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G25" s="43" t="str">
+        <f>用户指引!$E$18</f>
+        <v>fd_user_guide_step-1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="43" t="str">
+        <f>用户指引!$E$8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G26" s="43" t="str">
+        <f>用户指引!$E$19</f>
+        <v>fd_user_guide_step-2</v>
+      </c>
+      <c r="H26" s="35">
+        <v>2</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="F27" s="43" t="str">
+        <f>用户指引!$E$8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G27" s="43" t="str">
+        <f>用户指引!$E$20</f>
+        <v>fd_user_guide_step-3</v>
+      </c>
+      <c r="H27" s="35">
+        <v>3</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F1663-F265-461C-A3C5-C3AD5E65D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68872A79-430F-4260-9E17-81C9742D9509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3441,10 +3441,6 @@
     <t>fd_user_guide_step-1</t>
   </si>
   <si>
-    <t>CREATE-BACKLOG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>/test</t>
   </si>
   <si>
@@ -3452,18 +3448,10 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>BACKLOG-WORKFLOW</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>fd_user_guide_step-3</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>BACKLOG-STATUS</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>用户指引步骤关系表</t>
   </si>
   <si>
@@ -3521,6 +3509,18 @@
   </si>
   <si>
     <t>/agile/knowledge?type=project&amp;id= ${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE-KNOWKEDGE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE-DOCUMENT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE-DOCUMENT-TEMPLATE</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -8926,8 +8926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DB666-AF2C-4E12-AB05-D5ED11F25156}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -9011,10 +9011,10 @@
         <v>514</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H8" s="35"/>
     </row>
@@ -9157,19 +9157,19 @@
         <v>528</v>
       </c>
       <c r="F18" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>550</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>530</v>
-      </c>
       <c r="J18" s="35" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K18" s="43" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9182,22 +9182,22 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="G19" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>549</v>
-      </c>
       <c r="I19" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K19" s="43" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9210,22 +9210,22 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="41" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H20" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="J20" s="35" t="s">
         <v>548</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>551</v>
       </c>
       <c r="K20" s="43" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9266,22 +9266,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>511</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
@@ -9293,7 +9293,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="41" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F25" s="43" t="str">
         <f>用户指引!$E$8</f>
@@ -9316,7 +9316,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="41" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F26" s="43" t="str">
         <f>用户指引!$E$8</f>
@@ -9339,7 +9339,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="41" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F27" s="43" t="str">
         <f>用户指引!$E$8</f>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68872A79-430F-4260-9E17-81C9742D9509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,19 +21,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="554">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -58,7 +51,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -71,7 +63,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -90,7 +81,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -109,7 +99,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -128,7 +117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -160,7 +148,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -179,7 +166,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -198,7 +184,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -220,7 +205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -241,7 +225,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -262,7 +245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -283,7 +265,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -304,7 +285,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -316,7 +296,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -335,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -347,7 +325,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -366,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -385,7 +361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -404,7 +379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -423,7 +397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -471,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -490,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -509,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -528,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -540,7 +509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -559,7 +527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -578,7 +545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -598,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -617,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -637,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -656,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -668,7 +630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -687,7 +648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -706,7 +666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -730,7 +689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -749,7 +707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -768,7 +725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -787,7 +743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -806,7 +761,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -818,7 +772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -837,7 +790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -848,7 +800,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -869,7 +820,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -880,7 +830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -899,7 +848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -918,7 +866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -942,7 +889,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -961,7 +907,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -981,7 +926,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1001,7 +945,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1021,7 +964,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1042,7 +984,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1062,7 +1003,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1097,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1118,7 +1057,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1130,7 +1068,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1149,7 +1086,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1170,7 +1106,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1189,7 +1124,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1202,7 +1136,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1221,7 +1154,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1240,7 +1172,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1259,7 +1190,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1274,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1293,7 +1222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1312,7 +1240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1331,7 +1258,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1350,7 +1276,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1366,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1376,7 +1300,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1395,7 +1318,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1411,7 +1333,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1421,7 +1342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1440,7 +1360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1455,7 +1374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1474,7 +1392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1493,7 +1410,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1513,7 +1429,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1537,7 +1452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1556,7 +1470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1575,7 +1488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1595,7 +1507,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1616,7 +1527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1627,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1637,7 +1546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1649,7 +1557,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1668,7 +1575,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1687,7 +1593,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1706,7 +1611,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1726,7 +1630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1745,7 +1648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1764,7 +1666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1784,7 +1685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1803,7 +1703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1822,7 +1721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1841,7 +1739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1861,7 +1758,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1873,7 +1769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1884,7 +1779,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1894,7 +1788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1906,7 +1799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1925,7 +1817,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1937,7 +1828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1956,7 +1846,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1976,7 +1865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2871,6 +2759,12 @@
     <t>knowledgebase-service.page-project.queryDraftPage</t>
   </si>
   <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.user-setting-organization.createOrUpdate</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3382,7 +3276,6 @@
   </si>
   <si>
     <t>fd_user_guide</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>*ID</t>
@@ -3397,6 +3290,12 @@
     <t>fd_user_guide-1</t>
   </si>
   <si>
+    <t>KNOWLEDGE-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>知识沉淀管理</t>
+  </si>
+  <si>
     <t>用户指引菜单关系表</t>
   </si>
   <si>
@@ -3410,14 +3309,12 @@
   </si>
   <si>
     <t>fd_user_guide_menu_rel-1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>用户指引步骤表</t>
   </si>
   <si>
     <t>fd_user_guide_step</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>#STEP_CODE</t>
@@ -3441,15 +3338,43 @@
     <t>fd_user_guide_step-1</t>
   </si>
   <si>
+    <t>CREATE-KNOWKEDGE</t>
+  </si>
+  <si>
+    <t>如何创建/设置知识库</t>
+  </si>
+  <si>
+    <t>知识库是Choerodon猪齿鱼的知识管理工具，创建知识库后，便可创建文档。</t>
+  </si>
+  <si>
     <t>/test</t>
   </si>
   <si>
+    <t>/agile/knowledge?type=project&amp;id= ${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
     <t>fd_user_guide_step-2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE-DOCUMENT</t>
+  </si>
+  <si>
+    <t>创建文档</t>
+  </si>
+  <si>
+    <t>文档是项目运行过程中，各种知识内容的具体载体。通常在项目中会创建各种各样的文档，作为一种知识的累积。</t>
   </si>
   <si>
     <t>fd_user_guide_step-3</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE-DOCUMENT-TEMPLATE</t>
+  </si>
+  <si>
+    <t>如何使用文档模板</t>
+  </si>
+  <si>
+    <t>文档模板是文档创建时可以选择的预置内容，每个知识库都可以配置自己的文档模板。</t>
   </si>
   <si>
     <t>用户指引步骤关系表</t>
@@ -3474,61 +3399,19 @@
   </si>
   <si>
     <t>fd_user_guide_step_rel-3</t>
-  </si>
-  <si>
-    <t>知识沉淀管理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNOWLEDGE-MANAGEMENT</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何创建/设置知识库</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用文档模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档模板是文档创建时可以选择的预置内容，每个知识库都可以配置自己的文档模板。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档是项目运行过程中，各种知识内容的具体载体。通常在项目中会创建各种各样的文档，作为一种知识的累积。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库是Choerodon猪齿鱼的知识管理工具，创建知识库后，便可创建文档。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/knowledge?type=project&amp;id= ${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE-KNOWKEDGE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE-DOCUMENT</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE-DOCUMENT-TEMPLATE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3539,25 +3422,54 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3597,6 +3509,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3618,6 +3687,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3625,14 +3701,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3641,68 +3721,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3733,8 +3753,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3835,17 +4041,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3860,32 +4318,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3895,45 +4365,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4006,9 +4501,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4266,289 +4758,292 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="15" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
+    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="45" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="44" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="47" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" ht="49.5" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="49.5" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="66" spans="3:5">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" ht="33" spans="3:5">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" ht="49.5" spans="3:3">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6642857142857" customWidth="1"/>
+    <col min="6" max="6" width="101.857142857143" customWidth="1"/>
+    <col min="7" max="7" width="19.4428571428571" customWidth="1"/>
+    <col min="11" max="11" width="14.6642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4562,13 +5057,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4580,10 +5075,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="14" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4604,7 +5099,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4626,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +5165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -4721,7 +5216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="5:23">
       <c r="E10" t="s">
         <v>89</v>
       </c>
@@ -4769,7 +5264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="5:23">
       <c r="E11" t="s">
         <v>95</v>
       </c>
@@ -4817,7 +5312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="5:23">
       <c r="E12" t="s">
         <v>100</v>
       </c>
@@ -4862,7 +5357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="5:23">
       <c r="E13" t="s">
         <v>103</v>
       </c>
@@ -4907,7 +5402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
         <v>106</v>
       </c>
@@ -4952,7 +5447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="5:23">
       <c r="E15" t="s">
         <v>109</v>
       </c>
@@ -4997,7 +5492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="5:23">
       <c r="E16" t="s">
         <v>113</v>
       </c>
@@ -5029,7 +5524,7 @@
       <c r="N16" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="15" t="s">
         <v>116</v>
       </c>
       <c r="P16" t="s">
@@ -5321,96 +5816,97 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="5:23" s="6" customFormat="1">
-      <c r="E23" s="6" t="s">
+    <row r="23" s="16" customFormat="1" spans="5:23">
+      <c r="E23" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="16">
         <v>0</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="16">
         <v>80</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="16">
         <v>1</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="16">
         <v>0</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="16">
         <v>0</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="16">
         <v>0</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.3285714285714" customWidth="1"/>
+    <col min="6" max="6" width="34.8857142857143" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5424,20 +5920,20 @@
       <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -5449,7 +5945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>144</v>
       </c>
@@ -5461,7 +5957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>146</v>
       </c>
@@ -5473,7 +5969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>148</v>
       </c>
@@ -5485,7 +5981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>150</v>
       </c>
@@ -5497,7 +5993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>152</v>
       </c>
@@ -5509,7 +6005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -5521,7 +6017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>156</v>
       </c>
@@ -5533,7 +6029,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>158</v>
       </c>
@@ -6661,50 +7157,63 @@
         <v>339</v>
       </c>
     </row>
+    <row r="110" spans="5:7">
+      <c r="E110" t="s">
+        <v>340</v>
+      </c>
+      <c r="F110" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6642857142857" customWidth="1"/>
+    <col min="6" max="6" width="22.1071428571429" customWidth="1"/>
+    <col min="7" max="7" width="12.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="14.6642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6716,66 +7225,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>343</v>
+      <c r="F7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="H7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" t="s">
         <v>355</v>
-      </c>
-      <c r="J8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K8" t="s">
-        <v>353</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -6787,21 +7296,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -6813,27 +7322,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -6845,21 +7354,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6871,51 +7380,51 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H12" s="6" t="s">
+    <row r="12" spans="5:15">
+      <c r="E12" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="I12" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="16">
         <v>1</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15">
+    <row r="13" spans="5:15">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6923,33 +7432,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>373</v>
       </c>
+      <c r="G14" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="I14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6959,16 +7468,16 @@
         <f>菜单标签数据!$E$11</f>
         <v>iam_label-20</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6979,15 +7488,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -6998,15 +7507,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7017,47 +7526,48 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7069,12 +7579,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -7083,79 +7593,79 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="N7" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="M7" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>384</v>
+      </c>
       <c r="O7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="S7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="T7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="U7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="V7" t="s">
-        <v>390</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="X7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7188,30 +7698,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7247,27 +7757,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="V9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7304,33 +7814,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7367,33 +7877,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="V11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Y11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7430,33 +7940,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="V12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Y12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H13" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -7493,36 +8003,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="V13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G14" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7556,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="V14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7573,33 +8083,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>445</v>
+      <c r="F16" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>447</v>
       </c>
       <c r="H16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I16" t="s">
-        <v>447</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>343</v>
+        <v>449</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -7610,18 +8120,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7632,18 +8142,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I18" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -7654,18 +8164,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I19" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -7676,18 +8186,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7698,18 +8208,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7720,18 +8230,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -7742,18 +8252,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I23" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -7764,18 +8274,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I24" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -7786,18 +8296,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -7808,18 +8318,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -7830,18 +8340,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I27" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -7852,18 +8362,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I28" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -7874,18 +8384,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I29" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -7896,18 +8406,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I30" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -7918,18 +8428,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -7940,18 +8450,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I32" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J32" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -7962,18 +8472,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I33" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -7984,18 +8494,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J34" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8006,18 +8516,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I35" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J35" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -8028,18 +8538,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I36" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J36" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8050,18 +8560,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I37" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J37" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8072,18 +8582,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8094,18 +8604,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I39" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J39" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8116,18 +8626,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I40" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J40" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8138,18 +8648,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I41" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J41" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8160,18 +8670,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I42" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8182,18 +8692,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I43" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8204,18 +8714,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I44" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J44" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8226,62 +8736,63 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I45" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J45" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.1071428571429" customWidth="1"/>
+    <col min="6" max="6" width="18.8857142857143" customWidth="1"/>
+    <col min="7" max="7" width="11.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="12.3285714285714" customWidth="1"/>
+    <col min="9" max="9" width="11.3285714285714" customWidth="1"/>
+    <col min="10" max="10" width="19.5571428571429" customWidth="1"/>
+    <col min="11" max="11" width="21.4428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8293,66 +8804,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>343</v>
+      <c r="F7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="H7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -8364,27 +8875,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="E9" s="5" t="s">
+    <row r="9" spans="5:15">
+      <c r="E9" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" t="s">
         <v>484</v>
-      </c>
-      <c r="F9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" t="s">
-        <v>482</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8392,31 +8903,31 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="E10" s="5" t="s">
-        <v>488</v>
+    <row r="10" spans="5:15">
+      <c r="E10" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -8428,27 +8939,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="E11" s="5" t="s">
-        <v>357</v>
+    <row r="11" spans="5:15">
+      <c r="E11" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="F11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8456,31 +8967,31 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="5" t="s">
-        <v>359</v>
+    <row r="12" spans="5:15">
+      <c r="E12" s="15" t="s">
+        <v>361</v>
       </c>
       <c r="F12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K12" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -8492,27 +9003,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="5" t="s">
-        <v>365</v>
+    <row r="13" spans="5:15">
+      <c r="E13" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -8524,27 +9035,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="E14" s="5" t="s">
-        <v>499</v>
+    <row r="14" spans="5:15">
+      <c r="E14" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="F14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -8556,27 +9067,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="E15" s="5" t="s">
-        <v>503</v>
+    <row r="15" spans="5:15">
+      <c r="E15" s="15" t="s">
+        <v>505</v>
       </c>
       <c r="F15" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G15" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K15" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -8588,27 +9099,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="E16" s="5" t="s">
-        <v>506</v>
+    <row r="16" spans="5:15">
+      <c r="E16" s="15" t="s">
+        <v>508</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J16" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8628,33 +9139,33 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>373</v>
       </c>
+      <c r="G18" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="I18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G19" t="str">
         <f>角色!$E$10</f>
@@ -8665,15 +9176,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G20" t="str">
         <f>角色!$E$10</f>
@@ -8684,15 +9195,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G21" t="str">
         <f>角色!$E$10</f>
@@ -8703,15 +9214,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F22" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$11</f>
@@ -8722,15 +9233,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$11</f>
@@ -8741,15 +9252,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$11</f>
@@ -8760,15 +9271,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$12</f>
@@ -8779,15 +9290,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$12</f>
@@ -8798,15 +9309,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$12</f>
@@ -8817,15 +9328,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F28" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -8836,15 +9347,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F29" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$13</f>
@@ -8855,15 +9366,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$13</f>
@@ -8874,15 +9385,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F31" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$13</f>
@@ -8893,15 +9404,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F32" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -8912,453 +9423,454 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DB666-AF2C-4E12-AB05-D5ED11F25156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="20.6642857142857" customWidth="1"/>
+    <col min="6" max="6" width="17.5571428571429" customWidth="1"/>
+    <col min="7" max="7" width="19.6642857142857" customWidth="1"/>
+    <col min="8" max="8" width="22.2214285714286" customWidth="1"/>
+    <col min="9" max="9" width="4.66428571428571" customWidth="1"/>
+    <col min="10" max="10" width="13.2214285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="35" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="D7" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="41" t="s">
+      <c r="F7" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>541</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>540</v>
-      </c>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="35" t="s">
+      <c r="G7" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="C13" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="D13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F14" s="9" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="9" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="J17" s="35" t="s">
+      <c r="F17" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="G17" s="4" t="s">
         <v>527</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>542</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>547</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K18" s="43" t="str">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K18" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K19" s="43" t="str">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="G20" s="42" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K20" s="43" t="str">
+      <c r="I20" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K20" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="C24" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="F25" s="43" t="str">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F25" s="9" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G25" s="43" t="str">
+      <c r="G25" s="9" t="str">
         <f>用户指引!$E$18</f>
         <v>fd_user_guide_step-1</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="F26" s="43" t="str">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26" s="9" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G26" s="43" t="str">
+      <c r="G26" s="9" t="str">
         <f>用户指引!$E$19</f>
         <v>fd_user_guide_step-2</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="F27" s="43" t="str">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F27" s="9" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G27" s="43" t="str">
+      <c r="G27" s="9" t="str">
         <f>用户指引!$E$20</f>
         <v>fd_user_guide_step-3</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD5F6E-67FD-4748-A2F9-3D4124176DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -33,6 +39,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -51,6 +58,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -63,6 +71,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -81,6 +90,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -99,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -117,6 +128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -148,6 +160,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -166,6 +179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -184,6 +198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -205,6 +220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -225,6 +241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -245,6 +262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -265,6 +283,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -285,6 +304,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -296,6 +316,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -314,6 +335,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -325,6 +347,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -343,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -361,6 +385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -379,6 +404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -397,6 +423,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -444,6 +471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -462,6 +490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -480,6 +509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -498,6 +528,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -509,6 +540,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -527,6 +559,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -545,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -564,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -582,6 +617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -601,6 +637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -619,6 +656,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -630,6 +668,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -648,6 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -666,6 +706,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -689,6 +730,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -707,6 +749,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -725,6 +768,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -743,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -761,6 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -772,6 +818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -790,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -800,6 +848,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -820,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -830,6 +880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -848,6 +899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -866,6 +918,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -889,6 +942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -907,6 +961,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -926,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -945,6 +1001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -964,6 +1021,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -984,6 +1042,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1003,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1037,6 +1097,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1057,6 +1118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1068,6 +1130,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1086,6 +1149,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1106,6 +1170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1124,6 +1189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1136,6 +1202,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1154,6 +1221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1172,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1190,6 +1259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1204,6 +1274,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1222,6 +1293,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1240,6 +1312,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1258,6 +1331,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1276,6 +1350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1291,6 +1366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1300,6 +1376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1318,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1333,6 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1342,6 +1421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1360,6 +1440,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1374,6 +1455,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1392,6 +1474,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1410,6 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1429,6 +1513,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1452,6 +1537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1470,6 +1556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,6 +1575,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1527,6 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1537,6 +1627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1546,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1557,6 +1649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1575,6 +1668,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1593,6 +1687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1611,6 +1706,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1630,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1648,6 +1745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1666,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1685,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1703,6 +1803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1721,6 +1822,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1739,6 +1841,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1758,6 +1861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1769,6 +1873,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1779,6 +1884,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1788,6 +1894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1799,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1817,6 +1925,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1828,6 +1937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1846,6 +1956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1865,6 +1976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3404,14 +3516,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="46">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3422,7 +3528,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3434,30 +3540,30 @@
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3509,163 +3615,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3688,6 +3637,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3701,18 +3651,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3721,8 +3674,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3753,194 +3726,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4041,263 +3828,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4318,20 +3863,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4365,9 +3898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4375,60 +3905,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4501,6 +3999,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4758,271 +4259,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="15" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="41" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
+    <sheetView topLeftCell="D8" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.6642857142857" customWidth="1"/>
-    <col min="6" max="6" width="101.857142857143" customWidth="1"/>
-    <col min="7" max="7" width="19.4428571428571" customWidth="1"/>
-    <col min="11" max="11" width="14.6642857142857" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="101.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:24">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -5036,7 +4534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:24">
       <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +4619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:24">
       <c r="E8" t="s">
         <v>74</v>
       </c>
@@ -5165,7 +4663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:24">
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -5216,7 +4714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:23">
+    <row r="10" spans="1:24">
       <c r="E10" t="s">
         <v>89</v>
       </c>
@@ -5264,7 +4762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="5:23">
+    <row r="11" spans="1:24">
       <c r="E11" t="s">
         <v>95</v>
       </c>
@@ -5312,7 +4810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:23">
+    <row r="12" spans="1:24">
       <c r="E12" t="s">
         <v>100</v>
       </c>
@@ -5357,7 +4855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="5:23">
+    <row r="13" spans="1:24">
       <c r="E13" t="s">
         <v>103</v>
       </c>
@@ -5402,7 +4900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:24">
       <c r="E14" t="s">
         <v>106</v>
       </c>
@@ -5447,7 +4945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="5:23">
+    <row r="15" spans="1:24">
       <c r="E15" t="s">
         <v>109</v>
       </c>
@@ -5492,7 +4990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="5:23">
+    <row r="16" spans="1:24">
       <c r="E16" t="s">
         <v>113</v>
       </c>
@@ -5816,7 +5314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" spans="5:23">
+    <row r="23" spans="5:23" s="16" customFormat="1">
       <c r="E23" s="16" t="s">
         <v>134</v>
       </c>
@@ -5864,28 +5362,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+    <sheetView topLeftCell="C101" workbookViewId="0">
       <selection activeCell="E109" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="34.8857142857143" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -5899,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
@@ -5933,7 +5430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -5945,7 +5442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>144</v>
       </c>
@@ -5957,7 +5454,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>146</v>
       </c>
@@ -5969,7 +5466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>148</v>
       </c>
@@ -5981,7 +5478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>150</v>
       </c>
@@ -5993,7 +5490,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>152</v>
       </c>
@@ -6005,7 +5502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -6017,7 +5514,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>156</v>
       </c>
@@ -6029,7 +5526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>158</v>
       </c>
@@ -7170,29 +6667,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.6642857142857" customWidth="1"/>
-    <col min="6" max="6" width="22.1071428571429" customWidth="1"/>
-    <col min="7" max="7" width="12.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="14.6642857142857" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -7206,7 +6702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
@@ -7264,7 +6760,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>354</v>
       </c>
@@ -7296,7 +6792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>359</v>
       </c>
@@ -7322,7 +6818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>361</v>
       </c>
@@ -7354,7 +6850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>365</v>
       </c>
@@ -7380,7 +6876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="16" t="s">
         <v>367</v>
       </c>
@@ -7411,7 +6907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -7424,7 +6920,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -7453,7 +6949,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>377</v>
       </c>
@@ -7472,7 +6968,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>377</v>
       </c>
@@ -7530,23 +7026,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -7560,7 +7055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
@@ -7648,7 +7143,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>396</v>
       </c>
@@ -7707,7 +7202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>402</v>
       </c>
@@ -7766,7 +7261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>407</v>
       </c>
@@ -7829,7 +7324,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>415</v>
       </c>
@@ -7892,7 +7387,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>423</v>
       </c>
@@ -7955,7 +7450,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>431</v>
       </c>
@@ -8018,7 +7513,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>439</v>
       </c>
@@ -8075,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8746,32 +8241,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.1071428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="11.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="12.3285714285714" customWidth="1"/>
-    <col min="9" max="9" width="11.3285714285714" customWidth="1"/>
-    <col min="10" max="10" width="19.5571428571429" customWidth="1"/>
-    <col min="11" max="11" width="21.4428571428571" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -8785,7 +8279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
@@ -8843,7 +8337,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" s="15" t="s">
         <v>354</v>
       </c>
@@ -8875,7 +8369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" s="15" t="s">
         <v>486</v>
       </c>
@@ -8903,11 +8397,11 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" s="15" t="s">
         <v>490</v>
       </c>
@@ -8939,7 +8433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" s="15" t="s">
         <v>359</v>
       </c>
@@ -8967,11 +8461,11 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="O11" s="43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="15" t="s">
         <v>361</v>
       </c>
@@ -9003,7 +8497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="15" t="s">
         <v>367</v>
       </c>
@@ -9035,7 +8529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" s="15" t="s">
         <v>501</v>
       </c>
@@ -9067,7 +8561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" s="15" t="s">
         <v>505</v>
       </c>
@@ -9099,7 +8593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" s="15" t="s">
         <v>508</v>
       </c>
@@ -9160,7 +8654,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="1:9">
       <c r="E19" t="s">
         <v>377</v>
       </c>
@@ -9179,7 +8673,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
         <v>377</v>
       </c>
@@ -9198,7 +8692,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="1:9">
       <c r="E21" t="s">
         <v>377</v>
       </c>
@@ -9217,7 +8711,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:9">
       <c r="E22" t="s">
         <v>377</v>
       </c>
@@ -9236,7 +8730,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:9">
       <c r="E23" t="s">
         <v>377</v>
       </c>
@@ -9255,7 +8749,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:9">
       <c r="E24" t="s">
         <v>377</v>
       </c>
@@ -9274,7 +8768,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:9">
       <c r="E25" t="s">
         <v>377</v>
       </c>
@@ -9293,7 +8787,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:9">
       <c r="E26" t="s">
         <v>377</v>
       </c>
@@ -9312,7 +8806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:9">
       <c r="E27" t="s">
         <v>377</v>
       </c>
@@ -9331,7 +8825,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:9">
       <c r="E28" t="s">
         <v>377</v>
       </c>
@@ -9350,7 +8844,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:9">
       <c r="E29" t="s">
         <v>377</v>
       </c>
@@ -9369,7 +8863,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:9">
       <c r="E30" t="s">
         <v>377</v>
       </c>
@@ -9388,7 +8882,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:9">
       <c r="E31" t="s">
         <v>377</v>
       </c>
@@ -9407,7 +8901,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:9">
       <c r="E32" t="s">
         <v>377</v>
       </c>
@@ -9427,33 +8921,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="12.5571428571429" customWidth="1"/>
-    <col min="5" max="5" width="20.6642857142857" customWidth="1"/>
-    <col min="6" max="6" width="17.5571428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.6642857142857" customWidth="1"/>
-    <col min="8" max="8" width="22.2214285714286" customWidth="1"/>
-    <col min="9" max="9" width="4.66428571428571" customWidth="1"/>
-    <col min="10" max="10" width="13.2214285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9471,7 +8964,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9487,10 +8980,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="9:9">
+    <row r="6" spans="1:11">
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -9514,7 +9007,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9530,7 +9023,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9540,7 +9033,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9550,7 +9043,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9560,7 +9053,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9570,7 +9063,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -9594,7 +9087,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9603,8 +9096,8 @@
         <v>523</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G14" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9869,8 +9362,8 @@
       <c r="K27" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD5F6E-67FD-4748-A2F9-3D4124176DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60139567-B6B4-4069-B111-6F8043A1DAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,17 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3462,9 +3473,6 @@
     <t>/test</t>
   </si>
   <si>
-    <t>/agile/knowledge?type=project&amp;id= ${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
-  </si>
-  <si>
     <t>fd_user_guide_step-2</t>
   </si>
   <si>
@@ -3511,6 +3519,10 @@
   </si>
   <si>
     <t>fd_user_guide_step_rel-3</t>
+  </si>
+  <si>
+    <t>/knowledge?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3833,7 +3845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3906,11 +3918,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4269,36 +4282,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -4306,17 +4319,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="45"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="47" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +4346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
@@ -4353,7 +4366,7 @@
       </c>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
@@ -4367,7 +4380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
@@ -4410,7 +4423,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
@@ -4427,13 +4440,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
@@ -4441,7 +4454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
@@ -4449,7 +4462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
@@ -4457,7 +4470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
@@ -4483,7 +4496,7 @@
       </c>
       <c r="E26" s="45"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
@@ -4512,12 +4525,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="101.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.640625" customWidth="1"/>
+    <col min="6" max="6" width="101.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5375,10 +5388,10 @@
       <selection activeCell="E109" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.35546875" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6680,12 +6693,12 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.640625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -7039,7 +7052,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="11" t="s">
@@ -8254,15 +8267,15 @@
       <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.35546875" customWidth="1"/>
+    <col min="9" max="9" width="11.35546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8931,19 +8944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.640625" customWidth="1"/>
+    <col min="8" max="8" width="22.2109375" customWidth="1"/>
+    <col min="9" max="9" width="4.640625" customWidth="1"/>
+    <col min="10" max="10" width="13.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9173,8 +9186,8 @@
       <c r="I18" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>537</v>
+      <c r="J18" s="44" t="s">
+        <v>553</v>
       </c>
       <c r="K18" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9187,22 +9200,22 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>537</v>
+      <c r="J19" s="44" t="s">
+        <v>553</v>
       </c>
       <c r="K19" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9215,22 +9228,22 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>545</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>537</v>
+      <c r="J20" s="44" t="s">
+        <v>553</v>
       </c>
       <c r="K20" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9271,22 +9284,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>513</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9298,7 +9311,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9321,7 +9334,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9344,7 +9357,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>用户指引!$E$8</f>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60139567-B6B4-4069-B111-6F8043A1DAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E875AA0-BA2C-44EE-BEA6-C0F52AC9FFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3521,7 +3521,7 @@
     <t>fd_user_guide_step_rel-3</t>
   </si>
   <si>
-    <t>/knowledge?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+    <t>/knowledge/project?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -8945,7 +8945,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E875AA0-BA2C-44EE-BEA6-C0F52AC9FFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D39D76-68EA-4BB5-8B5B-E2CC72D28D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,22 +28,11 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="560">
   <si>
     <r>
       <rPr>
@@ -3523,6 +3512,25 @@
   <si>
     <t>/knowledge/project?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
     <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助文档表</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_help_doc</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#TAB_CODE</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>fd_help_doc-1</t>
   </si>
 </sst>
 </file>
@@ -3841,11 +3849,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3934,10 +3943,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{99E901E2-7A8C-442B-B7D6-1BEB12D95A05}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4521,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8942,20 +8958,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.640625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.640625" customWidth="1"/>
     <col min="8" max="8" width="22.2109375" customWidth="1"/>
-    <col min="9" max="9" width="4.640625" customWidth="1"/>
+    <col min="9" max="9" width="8.78515625" customWidth="1"/>
     <col min="10" max="10" width="13.2109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9374,6 +9391,53 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="50">
+        <v>43998</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="E30" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>119091</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D39D76-68EA-4BB5-8B5B-E2CC72D28D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC414FBF-6EDF-42B7-8345-4F1FA1A99C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="560">
   <si>
     <r>
       <rPr>
@@ -3417,9 +3417,6 @@
     <t>#MENU_ID</t>
   </si>
   <si>
-    <t>USER_GUIDE_ID</t>
-  </si>
-  <si>
     <t>fd_user_guide_menu_rel-1</t>
   </si>
   <si>
@@ -3457,9 +3454,6 @@
   </si>
   <si>
     <t>知识库是Choerodon猪齿鱼的知识管理工具，创建知识库后，便可创建文档。</t>
-  </si>
-  <si>
-    <t>/test</t>
   </si>
   <si>
     <t>fd_user_guide_step-2</t>
@@ -3531,6 +3525,14 @@
   </si>
   <si>
     <t>fd_help_doc-1</t>
+  </si>
+  <si>
+    <t>#USER_GUIDE_ID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB_CODE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3928,6 +3930,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3943,12 +3951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4318,11 +4320,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -4331,21 +4333,21 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -4456,11 +4458,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="40" t="s">
@@ -4498,19 +4500,19 @@
       <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="42" t="s">
@@ -8960,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9113,9 +9115,11 @@
         <v>521</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
@@ -9123,7 +9127,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -9156,31 +9160,31 @@
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9189,22 +9193,22 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>536</v>
+      <c r="I18" s="2">
+        <v>119864</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K18" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9217,22 +9221,22 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>536</v>
+      <c r="I19" s="2">
+        <v>119865</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K19" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9245,22 +9249,22 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>536</v>
+      <c r="I20" s="2">
+        <v>119866</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K20" s="9" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9301,22 +9305,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>513</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9328,7 +9332,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9351,7 +9355,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F26" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9374,7 +9378,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F27" s="9" t="str">
         <f>用户指引!$E$8</f>
@@ -9392,37 +9396,37 @@
       <c r="K27" s="2"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="50">
+      <c r="A29" s="45">
         <v>43998</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="G29" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="H29" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>521</v>
-      </c>
-      <c r="G29" s="54" t="s">
+      <c r="I29" s="49" t="s">
         <v>556</v>
       </c>
-      <c r="H29" s="54" t="s">
+    </row>
+    <row r="30" spans="1:11">
+      <c r="E30" s="50" t="s">
         <v>557</v>
-      </c>
-      <c r="I29" s="54" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="E30" s="55" t="s">
-        <v>559</v>
       </c>
       <c r="F30" s="9" t="str">
         <f>菜单SAAS版!$E$16</f>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\knowledgebase-service\src\main\resources\script\db\init-data\knowledgebase_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC414FBF-6EDF-42B7-8345-4F1FA1A99C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="597" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,19 +21,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="561">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -58,7 +51,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -71,7 +63,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -90,7 +81,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -109,7 +99,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -128,7 +117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -160,7 +148,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -179,7 +166,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -198,7 +184,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -220,7 +205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -241,7 +225,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -262,7 +245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -283,7 +265,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -304,7 +285,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -316,7 +296,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -335,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -347,7 +325,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -366,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -385,7 +361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -404,7 +379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -423,7 +397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -471,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -490,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -509,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -528,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -540,7 +509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -559,7 +527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -578,7 +545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -598,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -617,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -637,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -656,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -668,7 +630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -687,7 +648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -706,7 +666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -730,7 +689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -749,7 +707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -768,7 +725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -787,7 +743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -806,7 +761,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -818,7 +772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -837,7 +790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -848,7 +800,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -869,7 +820,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -880,7 +830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -899,7 +848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -918,7 +866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -942,7 +889,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -961,7 +907,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -981,7 +926,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1001,7 +945,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1021,7 +964,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1042,7 +984,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1062,7 +1003,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1097,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1118,7 +1057,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1130,7 +1068,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1149,7 +1086,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1170,7 +1106,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1189,7 +1124,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1202,7 +1136,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1221,7 +1154,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1240,7 +1172,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1259,7 +1190,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1274,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1293,7 +1222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1312,7 +1240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1331,7 +1258,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1350,7 +1276,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1366,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1376,7 +1300,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1395,7 +1318,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1411,7 +1333,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1421,7 +1342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1440,7 +1360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1455,7 +1374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1474,7 +1392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1493,7 +1410,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1513,7 +1429,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1537,7 +1452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1556,7 +1470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1575,7 +1488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1595,7 +1507,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1616,7 +1527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1627,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1637,7 +1546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1649,7 +1557,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1668,7 +1575,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1687,7 +1593,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1706,7 +1611,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1726,7 +1630,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1745,7 +1648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1764,7 +1666,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1784,7 +1685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1803,7 +1703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1822,7 +1721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1841,7 +1739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1861,7 +1758,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1873,7 +1769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1884,7 +1779,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1894,7 +1788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1906,7 +1799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1925,7 +1817,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1937,7 +1828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1956,7 +1846,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1976,7 +1865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2109,6 +1997,9 @@
     <t>知识库</t>
   </si>
   <si>
+    <t>Knowledge Base</t>
+  </si>
+  <si>
     <t>ZSK</t>
   </si>
   <si>
@@ -2262,6 +2153,9 @@
     <t>文档</t>
   </si>
   <si>
+    <t>Document</t>
+  </si>
+  <si>
     <t>WD</t>
   </si>
   <si>
@@ -3417,6 +3311,12 @@
     <t>#MENU_ID</t>
   </si>
   <si>
+    <t>#USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>TAB_CODE</t>
+  </si>
+  <si>
     <t>fd_user_guide_menu_rel-1</t>
   </si>
   <si>
@@ -3456,6 +3356,9 @@
     <t>知识库是Choerodon猪齿鱼的知识管理工具，创建知识库后，便可创建文档。</t>
   </si>
   <si>
+    <t>/knowledge/project?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
     <t>fd_user_guide_step-2</t>
   </si>
   <si>
@@ -3486,9 +3389,6 @@
     <t>fd_user_guide_step_rel</t>
   </si>
   <si>
-    <t>#USER_GUIDE_ID</t>
-  </si>
-  <si>
     <t>#STEP_ID</t>
   </si>
   <si>
@@ -3504,12 +3404,7 @@
     <t>fd_user_guide_step_rel-3</t>
   </si>
   <si>
-    <t>/knowledge/project?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>帮助文档表</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>fd_help_doc</t>
@@ -3525,21 +3420,19 @@
   </si>
   <si>
     <t>fd_help_doc-1</t>
-  </si>
-  <si>
-    <t>#USER_GUIDE_ID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAB_CODE</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3550,42 +3443,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3596,6 +3483,12 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3637,6 +3530,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3659,7 +3709,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3673,21 +3722,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3696,28 +3742,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3748,8 +3774,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3850,29 +4062,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3886,8 +4346,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3921,6 +4393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3928,36 +4403,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{99E901E2-7A8C-442B-B7D6-1BEB12D95A05}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4030,9 +4530,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4290,289 +4787,292 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.35546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="25" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.3555555555556" style="16" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="C1" s="52" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="51" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="54" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="26"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="26" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="49.5">
-      <c r="C9" s="32" t="s">
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
-      <c r="C10" s="35" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="C11" s="29" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="C15" s="37" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="40" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="40" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="40" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="40" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="41" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="30" t="s">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="51"/>
-    </row>
-    <row r="27" spans="3:5" ht="49.5">
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.640625" customWidth="1"/>
-    <col min="6" max="6" width="101.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.640625" customWidth="1"/>
+    <col min="5" max="5" width="24.637037037037" customWidth="1"/>
+    <col min="6" max="6" width="101.851851851852" customWidth="1"/>
+    <col min="7" max="7" width="19.4222222222222" customWidth="1"/>
+    <col min="11" max="11" width="14.637037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4586,13 +5086,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4604,10 +5104,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="21" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4628,7 +5128,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4650,7 +5150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
         <v>74</v>
       </c>
@@ -4694,7 +5194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
         <v>83</v>
       </c>
@@ -4705,10 +5205,10 @@
         <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -4718,7 +5218,7 @@
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -4727,7 +5227,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
         <v>79</v>
@@ -4745,18 +5245,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="5:23">
       <c r="E10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -4766,10 +5266,10 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
         <v>81</v>
@@ -4784,7 +5284,7 @@
         <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U10" t="s">
         <v>82</v>
@@ -4793,18 +5293,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="5:23">
       <c r="E11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -4814,13 +5314,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
         <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="s">
         <v>79</v>
@@ -4832,7 +5332,7 @@
         <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U11" t="s">
         <v>82</v>
@@ -4841,18 +5341,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="5:23">
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -4862,13 +5362,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
         <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12" t="s">
         <v>79</v>
@@ -4886,18 +5386,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="5:23">
       <c r="E13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -4907,13 +5407,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
         <v>81</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
         <v>79</v>
@@ -4931,18 +5431,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
@@ -4952,13 +5452,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
         <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="s">
         <v>79</v>
@@ -4976,18 +5476,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="5:23">
       <c r="E15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
         <v>78</v>
@@ -4997,13 +5497,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N15" t="s">
         <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="s">
         <v>79</v>
@@ -5021,21 +5521,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="5:23">
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
@@ -5045,19 +5545,19 @@
         <v>iam_menu-24</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N16" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="15" t="s">
-        <v>116</v>
+      <c r="O16" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16" t="s">
         <v>79</v>
@@ -5077,16 +5577,16 @@
     </row>
     <row r="17" spans="5:23">
       <c r="E17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
@@ -5096,13 +5596,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
         <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" t="s">
         <v>79</v>
@@ -5122,16 +5622,16 @@
     </row>
     <row r="18" spans="5:23">
       <c r="E18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
         <v>78</v>
@@ -5141,13 +5641,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
         <v>81</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="s">
         <v>79</v>
@@ -5167,16 +5667,16 @@
     </row>
     <row r="19" spans="5:23">
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
         <v>78</v>
@@ -5186,13 +5686,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
         <v>81</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="s">
         <v>79</v>
@@ -5212,16 +5712,16 @@
     </row>
     <row r="20" spans="5:23">
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
         <v>78</v>
@@ -5231,7 +5731,7 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s">
         <v>79</v>
@@ -5257,16 +5757,16 @@
     </row>
     <row r="21" spans="5:23">
       <c r="E21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
         <v>78</v>
@@ -5276,13 +5776,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
         <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="s">
         <v>79</v>
@@ -5302,16 +5802,16 @@
     </row>
     <row r="22" spans="5:23">
       <c r="E22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
         <v>78</v>
@@ -5321,13 +5821,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
         <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q22" t="s">
         <v>79</v>
@@ -5345,96 +5845,97 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="5:23" s="16" customFormat="1">
-      <c r="E23" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="16" t="s">
+    <row r="23" s="22" customFormat="1" spans="5:23">
+      <c r="E23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="16" t="s">
+      <c r="G23" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="H23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="22">
         <v>0</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="22">
         <v>80</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="22">
         <v>1</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="22">
         <v>0</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="22">
         <v>0</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="22">
         <v>0</v>
       </c>
-      <c r="U23" s="16" t="s">
+      <c r="U23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView topLeftCell="C101" workbookViewId="0">
       <selection activeCell="E109" sqref="E109:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="33.35546875" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.3555555555556" customWidth="1"/>
+    <col min="6" max="6" width="34.8518518518519" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5446,1301 +5947,1302 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G66" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G71" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G73" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G78" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G79" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G81" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G83" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G85" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G87" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G88" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G92" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G95" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G99" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G100" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G101" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G102" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G104" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G106" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G107" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G108" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G110" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.640625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.640625" customWidth="1"/>
+    <col min="5" max="5" width="12.637037037037" customWidth="1"/>
+    <col min="6" max="6" width="22.1407407407407" customWidth="1"/>
+    <col min="7" max="7" width="12.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="14.637037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6752,66 +7254,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>345</v>
+      <c r="F7" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
+        <v>359</v>
+      </c>
+      <c r="J8" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" t="s">
         <v>357</v>
-      </c>
-      <c r="J8" t="s">
-        <v>358</v>
-      </c>
-      <c r="K8" t="s">
-        <v>355</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -6823,21 +7325,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -6849,27 +7351,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -6881,21 +7383,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6907,51 +7409,51 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" s="16" t="s">
+    <row r="12" spans="5:15">
+      <c r="E12" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="I12" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="22">
         <v>1</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15">
+    <row r="13" spans="5:15">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6959,33 +7461,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E14" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="20" t="s">
         <v>375</v>
       </c>
+      <c r="G14" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="I14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6995,16 +7497,16 @@
         <f>菜单标签数据!$E$11</f>
         <v>iam_label-20</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7015,15 +7517,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7034,15 +7536,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7053,47 +7555,48 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7105,12 +7608,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -7119,79 +7622,79 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="20" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="N7" s="13" t="s">
         <v>384</v>
       </c>
+      <c r="M7" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="O7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="S7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="V7" t="s">
-        <v>392</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>395</v>
       </c>
       <c r="X7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7224,30 +7727,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="V8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7283,27 +7786,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="V9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7340,33 +7843,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="V10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Y10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7403,33 +7906,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="V11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Y11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7466,33 +7969,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="V12" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F13" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -7529,36 +8032,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F14" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G14" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7592,16 +8095,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="V14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7609,33 +8112,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>447</v>
+      <c r="F16" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>449</v>
       </c>
       <c r="H16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s">
-        <v>449</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>345</v>
+        <v>451</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -7646,18 +8149,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7668,18 +8171,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I18" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J18" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -7690,18 +8193,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -7712,18 +8215,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7734,18 +8237,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7756,18 +8259,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -7778,18 +8281,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -7800,18 +8303,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -7822,18 +8325,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J25" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -7844,18 +8347,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -7866,18 +8369,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -7888,18 +8391,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -7910,18 +8413,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I29" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J29" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -7932,18 +8435,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J30" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -7954,18 +8457,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -7976,18 +8479,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I32" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J32" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -7998,18 +8501,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -8020,18 +8523,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8042,18 +8545,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -8064,18 +8567,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I36" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J36" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8086,18 +8589,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8108,18 +8611,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8130,18 +8633,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I39" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J39" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8152,18 +8655,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I40" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J40" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8174,18 +8677,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I41" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J41" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8196,18 +8699,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I42" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J42" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8218,18 +8721,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8240,18 +8743,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J44" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8262,62 +8765,63 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I45" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J45" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.35546875" customWidth="1"/>
-    <col min="9" max="9" width="11.35546875" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.1407407407407" customWidth="1"/>
+    <col min="6" max="6" width="18.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="11.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="12.3555555555556" customWidth="1"/>
+    <col min="9" max="9" width="11.3555555555556" customWidth="1"/>
+    <col min="10" max="10" width="19.5703703703704" customWidth="1"/>
+    <col min="11" max="11" width="21.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8329,66 +8833,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>345</v>
+      <c r="F7" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="H7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -8400,27 +8904,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="E9" s="15" t="s">
+    <row r="9" spans="5:15">
+      <c r="E9" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" t="s">
         <v>486</v>
-      </c>
-      <c r="F9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G9" t="s">
-        <v>484</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8428,31 +8932,31 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="E10" s="15" t="s">
-        <v>490</v>
+    <row r="10" spans="5:15">
+      <c r="E10" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="F10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -8464,27 +8968,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="E11" s="15" t="s">
-        <v>359</v>
+    <row r="11" spans="5:15">
+      <c r="E11" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="F11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8492,31 +8996,31 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="15" t="s">
-        <v>361</v>
+    <row r="12" spans="5:15">
+      <c r="E12" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G12" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -8528,27 +9032,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="15" t="s">
-        <v>367</v>
+    <row r="13" spans="5:15">
+      <c r="E13" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="F13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K13" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -8560,27 +9064,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="E14" s="15" t="s">
-        <v>501</v>
+    <row r="14" spans="5:15">
+      <c r="E14" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="F14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G14" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J14" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -8592,27 +9096,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="E15" s="15" t="s">
-        <v>505</v>
+    <row r="15" spans="5:15">
+      <c r="E15" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="F15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J15" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -8624,27 +9128,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="E16" s="15" t="s">
-        <v>508</v>
+    <row r="16" spans="5:15">
+      <c r="E16" s="16" t="s">
+        <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J16" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8664,33 +9168,33 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="20" t="s">
         <v>375</v>
       </c>
+      <c r="G18" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="I18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G19" t="str">
         <f>角色!$E$10</f>
@@ -8701,15 +9205,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G20" t="str">
         <f>角色!$E$10</f>
@@ -8720,15 +9224,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G21" t="str">
         <f>角色!$E$10</f>
@@ -8739,15 +9243,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$11</f>
@@ -8758,15 +9262,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$11</f>
@@ -8777,15 +9281,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I23" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F24" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$11</f>
@@ -8796,15 +9300,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$12</f>
@@ -8815,15 +9319,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$12</f>
@@ -8834,15 +9338,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F27" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$12</f>
@@ -8853,15 +9357,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -8872,15 +9376,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$13</f>
@@ -8891,15 +9395,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F30" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$13</f>
@@ -8910,15 +9414,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$13</f>
@@ -8929,15 +9433,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I31" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F32" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -8948,37 +9452,38 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.640625" customWidth="1"/>
-    <col min="8" max="8" width="22.2109375" customWidth="1"/>
-    <col min="9" max="9" width="8.78515625" customWidth="1"/>
-    <col min="10" max="10" width="13.2109375" customWidth="1"/>
+    <col min="1" max="1" width="9.57037037037037" customWidth="1"/>
+    <col min="4" max="4" width="12.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="20.637037037037" customWidth="1"/>
+    <col min="6" max="6" width="17.5703703703704" customWidth="1"/>
+    <col min="7" max="7" width="19.637037037037" customWidth="1"/>
+    <col min="8" max="8" width="22.2074074074074" customWidth="1"/>
+    <col min="9" max="9" width="8.78518518518518" customWidth="1"/>
+    <col min="10" max="10" width="13.2074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8996,7 +9501,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9012,10 +9517,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="6" spans="9:9">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -9023,39 +9528,39 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9065,7 +9570,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9075,7 +9580,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9085,7 +9590,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9095,7 +9600,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -9103,37 +9608,37 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>524</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" s="9" t="str">
+        <v>526</v>
+      </c>
+      <c r="F14" s="10" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G14" s="9" t="str">
+      <c r="G14" s="10" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
@@ -9160,31 +9665,31 @@
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9193,24 +9698,24 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I18" s="2">
         <v>119864</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K18" s="9" t="str">
+      <c r="J18" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="K18" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9221,24 +9726,24 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="I19" s="2">
         <v>119865</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K19" s="9" t="str">
+      <c r="J19" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="K19" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9249,24 +9754,24 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="I20" s="2">
         <v>119866</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K20" s="9" t="str">
+      <c r="J20" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="K20" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9305,22 +9810,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9332,13 +9837,13 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F25" s="9" t="str">
+        <v>552</v>
+      </c>
+      <c r="F25" s="10" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="10" t="str">
         <f>用户指引!$E$18</f>
         <v>fd_user_guide_step-1</v>
       </c>
@@ -9355,13 +9860,13 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="F26" s="9" t="str">
+        <v>553</v>
+      </c>
+      <c r="F26" s="10" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="10" t="str">
         <f>用户指引!$E$19</f>
         <v>fd_user_guide_step-2</v>
       </c>
@@ -9378,13 +9883,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="F27" s="9" t="str">
+        <v>554</v>
+      </c>
+      <c r="F27" s="10" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="10" t="str">
         <f>用户指引!$E$20</f>
         <v>fd_user_guide_step-3</v>
       </c>
@@ -9395,40 +9900,40 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="45">
+    <row r="29" spans="1:9">
+      <c r="A29" s="11">
         <v>43998</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>554</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="C29" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="D29" s="13" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="E30" s="50" t="s">
+      <c r="E29" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="F30" s="9" t="str">
+      <c r="H29" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" s="10" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
@@ -9443,8 +9948,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2153,7 +2153,7 @@
     <t>文档</t>
   </si>
   <si>
-    <t>Document</t>
+    <t>Doc</t>
   </si>
   <si>
     <t>WD</t>
@@ -3427,12 +3427,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3488,12 +3488,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3531,6 +3525,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3545,38 +3575,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3597,7 +3598,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,14 +3632,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3636,14 +3652,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3651,8 +3659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3664,27 +3673,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3708,13 +3696,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3727,12 +3708,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3776,43 +3751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,7 +3775,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,31 +3847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3884,7 +3871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3896,67 +3919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4102,6 +4077,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4122,15 +4121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4145,167 +4135,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4323,12 +4298,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4346,44 +4321,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4396,7 +4371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5039,8 +5014,8 @@
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="577">
   <si>
     <r>
       <rPr>
@@ -2769,6 +2769,54 @@
   </si>
   <si>
     <t>knowledgebase-service.user-setting-organization.createOrUpdate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.uploadMultipartFileWithMD5</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knowledgebase-service.work-space-organization.upload</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-113</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.renameWorkSpace</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-114</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.uploadMultipartFileWithMD5</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-115</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.upload</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-116</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knowledgebase-service.work-space-project.renameWorkSpace</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryFolder</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3427,8 +3475,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3527,12 +3575,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3547,43 +3640,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3597,8 +3654,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3614,30 +3680,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3661,15 +3703,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3751,7 +3799,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3763,13 +3919,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3781,55 +3955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,25 +3967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3871,67 +3979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4038,15 +4086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4058,6 +4097,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4077,17 +4155,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4109,183 +4183,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
@@ -4314,6 +4362,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4776,8 +4826,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="25" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="27" customWidth="1"/>
     <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
     <col min="4" max="4" width="35.3555555555556" style="16" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
@@ -4793,79 +4843,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="29"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4873,56 +4923,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="51" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4932,30 +4982,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -4963,7 +5013,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -4971,25 +5021,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5014,8 +5064,8 @@
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5876,10 +5926,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="C101" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109:E110"/>
+    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -7171,6 +7221,102 @@
       </c>
       <c r="G110" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="111" s="24" customFormat="1" spans="5:7">
+      <c r="E111" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F111" s="25" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" s="24" customFormat="1" spans="5:7">
+      <c r="E112" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="25" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" s="24" customFormat="1" spans="5:7">
+      <c r="E113" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F113" s="25" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" s="24" customFormat="1" spans="5:7">
+      <c r="E114" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F114" s="25" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" s="24" customFormat="1" spans="5:7">
+      <c r="E115" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="25" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" s="24" customFormat="1" spans="5:7">
+      <c r="E116" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="F116" s="25" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" s="24" customFormat="1" spans="5:7">
+      <c r="E117" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="25" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F118" s="25" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -7229,66 +7375,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="L7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="M7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="N7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="O7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="K8" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -7302,19 +7448,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -7328,25 +7474,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -7360,19 +7506,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7386,22 +7532,22 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="22" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -7436,33 +7582,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -7473,15 +7619,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7492,15 +7638,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F17" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7511,15 +7657,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7530,7 +7676,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7583,10 +7729,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
@@ -7601,75 +7747,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="J7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="O7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="P7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="Q7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="R7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="S7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="T7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="U7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="V7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="X7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="Y7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="H8" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="I8" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="J8" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7702,10 +7848,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="V8" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -7713,19 +7859,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="I9" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7761,10 +7907,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="V9" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -7772,16 +7918,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7818,33 +7964,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="V10" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="Y10" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="H11" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7881,33 +8027,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="V11" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="Y11" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F12" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="G12" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7944,33 +8090,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="V12" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="Y12" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -8007,36 +8153,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="V13" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="Y13" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="H14" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="J14" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8070,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="V14" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8087,33 +8233,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="H16" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="I16" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8124,18 +8270,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I17" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J17" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8146,18 +8292,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I18" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J18" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8168,18 +8314,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I19" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J19" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8190,18 +8336,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I20" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J20" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8212,18 +8358,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I21" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8234,18 +8380,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I22" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J22" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8256,18 +8402,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I23" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J23" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8278,18 +8424,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I24" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J24" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8300,18 +8446,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I25" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J25" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -8322,18 +8468,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I26" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -8344,18 +8490,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I27" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J27" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -8366,18 +8512,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I28" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J28" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -8388,18 +8534,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I29" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J29" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -8410,18 +8556,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I30" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J30" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -8432,18 +8578,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
+        <v>486</v>
+      </c>
+      <c r="I31" t="s">
         <v>470</v>
       </c>
-      <c r="I31" t="s">
-        <v>454</v>
-      </c>
       <c r="J31" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -8454,18 +8600,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I32" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J32" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -8476,18 +8622,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
+        <v>486</v>
+      </c>
+      <c r="I33" t="s">
         <v>470</v>
       </c>
-      <c r="I33" t="s">
-        <v>454</v>
-      </c>
       <c r="J33" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -8498,18 +8644,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I34" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J34" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8520,18 +8666,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I35" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J35" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -8542,18 +8688,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I36" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8564,18 +8710,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I37" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J37" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8586,18 +8732,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I38" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J38" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8608,18 +8754,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I39" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8630,18 +8776,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I40" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J40" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8652,18 +8798,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I41" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J41" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8674,18 +8820,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I42" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J42" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8696,18 +8842,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I43" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J43" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8718,18 +8864,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="I44" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8740,13 +8886,13 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
+        <v>486</v>
+      </c>
+      <c r="I45" t="s">
         <v>470</v>
       </c>
-      <c r="I45" t="s">
-        <v>454</v>
-      </c>
       <c r="J45" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -8808,66 +8954,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="L7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="M7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="N7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="O7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="16" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="G8" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J8" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -8881,25 +9027,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="16" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="G9" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J9" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="K9" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8907,31 +9053,31 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" s="16" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="F10" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="G10" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J10" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="K10" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -8945,25 +9091,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="16" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="G11" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J11" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="K11" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8971,31 +9117,31 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="16" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J12" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="K12" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -9009,25 +9155,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" s="16" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="G13" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="K13" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -9041,25 +9187,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" s="16" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="G14" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J14" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="K14" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -9073,25 +9219,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="16" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="G15" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J15" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="K15" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -9105,25 +9251,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" s="16" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="G16" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J16" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="K16" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -9143,33 +9289,33 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="I18" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G19" t="str">
         <f>角色!$E$10</f>
@@ -9180,15 +9326,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G20" t="str">
         <f>角色!$E$10</f>
@@ -9199,15 +9345,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I20" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G21" t="str">
         <f>角色!$E$10</f>
@@ -9218,15 +9364,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$11</f>
@@ -9237,15 +9383,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$11</f>
@@ -9256,15 +9402,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I23" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$11</f>
@@ -9275,15 +9421,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$12</f>
@@ -9294,15 +9440,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$12</f>
@@ -9313,15 +9459,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$12</f>
@@ -9332,15 +9478,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -9351,15 +9497,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I28" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$13</f>
@@ -9370,15 +9516,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$13</f>
@@ -9389,15 +9535,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I30" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F31" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$13</f>
@@ -9408,15 +9554,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I31" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -9427,7 +9573,7 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9503,19 +9649,19 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -9525,13 +9671,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -9583,22 +9729,22 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9607,7 +9753,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -9640,31 +9786,31 @@
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9673,22 +9819,22 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="I18" s="2">
         <v>119864</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K18" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9701,22 +9847,22 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="I19" s="2">
         <v>119865</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K19" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9729,22 +9875,22 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="I20" s="2">
         <v>119866</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K20" s="10" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9785,22 +9931,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9812,7 +9958,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>用户指引!$E$8</f>
@@ -9835,7 +9981,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>用户指引!$E$8</f>
@@ -9858,7 +10004,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>用户指引!$E$8</f>
@@ -9883,30 +10029,30 @@
         <v>51</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" s="15" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="F30" s="10" t="str">
         <f>菜单SAAS版!$E$16</f>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="13220" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
   <si>
     <r>
       <rPr>
@@ -2817,6 +2817,12 @@
   </si>
   <si>
     <t>knowledgebase-service.work-space-organization.queryFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-119</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-120</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3480,7 +3486,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3541,10 +3547,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.05"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3566,23 +3584,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3594,7 +3607,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3615,9 +3659,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3632,7 +3691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3640,7 +3699,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3654,42 +3713,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3698,28 +3732,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3799,31 +3811,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,7 +3859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3853,7 +3871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3865,13 +3907,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3883,13 +3973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3901,85 +3991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3996,12 +4008,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4026,6 +4054,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4034,26 +4075,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4068,15 +4089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4086,17 +4098,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4126,16 +4156,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4154,204 +4195,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4363,7 +4375,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4374,114 +4387,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4816,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -4824,155 +4837,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="27" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.3555555555556" style="16" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.3552631578947" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
+    <col min="4" max="4" width="35.3552631578947" style="16" customWidth="1"/>
+    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
+    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
+    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
+    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
+    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
+    <col min="14" max="1025" width="10.3552631578947" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="44"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="34" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="29"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="44" t="s">
+      <c r="E8" s="53"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="47" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="41" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="41" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="49" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="53"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4981,39 +4994,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="52" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="53" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="53" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="53" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="53" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="43" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -5021,25 +5034,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="55" t="s">
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5060,20 +5073,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="24.637037037037" customWidth="1"/>
-    <col min="6" max="6" width="101.851851851852" customWidth="1"/>
-    <col min="7" max="7" width="19.4222222222222" customWidth="1"/>
-    <col min="11" max="11" width="14.637037037037" customWidth="1"/>
+    <col min="5" max="5" width="24.6381578947368" customWidth="1"/>
+    <col min="6" max="6" width="101.848684210526" customWidth="1"/>
+    <col min="7" max="7" width="19.4210526315789" customWidth="1"/>
+    <col min="11" max="11" width="14.6381578947368" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5918,24 +5931,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="33.3555555555556" customWidth="1"/>
-    <col min="6" max="6" width="34.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="33.3552631578947" customWidth="1"/>
+    <col min="6" max="6" width="34.8486842105263" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7224,109 +7237,133 @@
       </c>
     </row>
     <row r="111" s="24" customFormat="1" spans="5:7">
-      <c r="E111" s="25" t="s">
+      <c r="E111" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="F111" s="25" t="str">
+      <c r="F111" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G111" s="25" t="s">
+      <c r="G111" s="24" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="112" s="24" customFormat="1" spans="5:7">
-      <c r="E112" s="25" t="s">
+      <c r="E112" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="F112" s="25" t="str">
+      <c r="F112" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="G112" s="24" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="113" s="24" customFormat="1" spans="5:7">
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="F113" s="25" t="str">
+      <c r="F113" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="24" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="114" s="24" customFormat="1" spans="5:7">
-      <c r="E114" s="25" t="s">
+      <c r="E114" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="F114" s="25" t="str">
+      <c r="F114" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G114" s="24" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="115" s="24" customFormat="1" spans="5:7">
-      <c r="E115" s="25" t="s">
+      <c r="E115" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="F115" s="25" t="str">
+      <c r="F115" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="G115" s="24" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="116" s="24" customFormat="1" spans="5:7">
-      <c r="E116" s="25" t="s">
+      <c r="E116" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="25" t="str">
+      <c r="F116" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G116" s="24" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="117" s="24" customFormat="1" spans="5:7">
-      <c r="E117" s="25" t="s">
+      <c r="E117" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="25" t="str">
+      <c r="F117" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G117" s="25" t="s">
+      <c r="G117" s="24" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="118" spans="5:7">
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="F118" s="25" t="str">
+      <c r="F118" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="24" t="s">
         <v>359</v>
       </c>
     </row>
+    <row r="119" s="25" customFormat="1" spans="5:7">
+      <c r="E119" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F119" s="26" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" s="25" customFormat="1" spans="5:7">
+      <c r="E120" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F120" s="26" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -7334,12 +7371,12 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="12.637037037037" customWidth="1"/>
-    <col min="6" max="6" width="22.1407407407407" customWidth="1"/>
-    <col min="7" max="7" width="12.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.637037037037" customWidth="1"/>
+    <col min="5" max="5" width="12.6381578947368" customWidth="1"/>
+    <col min="6" max="6" width="22.1381578947368" customWidth="1"/>
+    <col min="7" max="7" width="12.8486842105263" customWidth="1"/>
+    <col min="8" max="8" width="14.6381578947368" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7375,66 +7412,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J8" t="s">
+        <v>378</v>
+      </c>
+      <c r="K8" t="s">
         <v>375</v>
-      </c>
-      <c r="J8" t="s">
-        <v>376</v>
-      </c>
-      <c r="K8" t="s">
-        <v>373</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -7448,19 +7485,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -7474,25 +7511,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -7506,19 +7543,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7532,22 +7569,22 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="22" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -7582,33 +7619,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -7619,15 +7656,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7638,15 +7675,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7657,15 +7694,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7676,17 +7713,17 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
@@ -7694,7 +7731,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
@@ -7729,10 +7766,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
@@ -7747,75 +7784,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="R7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="X7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7848,10 +7885,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="V8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -7859,19 +7896,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7907,10 +7944,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="V9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -7918,16 +7955,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7964,33 +8001,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="V10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Y10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -8027,33 +8064,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Y11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -8090,33 +8127,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="V12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Y12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -8153,36 +8190,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="V13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Y13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8216,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="V14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8233,33 +8270,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8270,18 +8307,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I17" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8292,18 +8329,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J18" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8314,18 +8351,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8336,18 +8373,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I20" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8358,18 +8395,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8380,18 +8417,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J22" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8402,18 +8439,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I23" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J23" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8424,18 +8461,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8446,18 +8483,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -8468,18 +8505,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -8490,18 +8527,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -8512,18 +8549,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J28" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -8534,18 +8571,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I29" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J29" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -8556,18 +8593,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I30" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J30" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -8578,18 +8615,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J31" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -8600,18 +8637,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I32" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J32" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -8622,18 +8659,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I33" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J33" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -8644,18 +8681,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I34" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8666,18 +8703,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$12</f>
@@ -8688,18 +8725,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I36" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J36" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$12</f>
@@ -8710,18 +8747,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I37" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$12</f>
@@ -8732,18 +8769,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H38" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I38" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$12</f>
@@ -8754,18 +8791,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H39" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I39" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J39" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -8776,18 +8813,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I40" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J40" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8798,18 +8835,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I41" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J41" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8820,18 +8857,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H42" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I42" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J42" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8842,18 +8879,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H43" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I43" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J43" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8864,18 +8901,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H44" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I44" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J44" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$13</f>
@@ -8886,23 +8923,23 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H45" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I45" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J45" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -8910,15 +8947,15 @@
       <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="12.1407407407407" customWidth="1"/>
-    <col min="6" max="6" width="18.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="11.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="12.3555555555556" customWidth="1"/>
-    <col min="9" max="9" width="11.3555555555556" customWidth="1"/>
-    <col min="10" max="10" width="19.5703703703704" customWidth="1"/>
-    <col min="11" max="11" width="21.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="12.1381578947368" customWidth="1"/>
+    <col min="6" max="6" width="18.8486842105263" customWidth="1"/>
+    <col min="7" max="7" width="11.8486842105263" customWidth="1"/>
+    <col min="8" max="8" width="12.3552631578947" customWidth="1"/>
+    <col min="9" max="9" width="11.3552631578947" customWidth="1"/>
+    <col min="10" max="10" width="19.5723684210526" customWidth="1"/>
+    <col min="11" max="11" width="21.4210526315789" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8954,66 +8991,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -9027,25 +9064,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" t="s">
         <v>504</v>
-      </c>
-      <c r="F9" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" t="s">
-        <v>502</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -9053,31 +9090,31 @@
       <c r="N9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" s="16" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -9091,25 +9128,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -9117,31 +9154,31 @@
       <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="56" t="s">
+      <c r="O11" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -9155,25 +9192,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K13" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -9187,25 +9224,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" s="16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J14" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K14" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -9219,25 +9256,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="16" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F15" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G15" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K15" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -9251,25 +9288,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" s="16" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G16" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J16" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -9289,33 +9326,33 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F19" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G19" t="str">
         <f>角色!$E$10</f>
@@ -9326,15 +9363,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F20" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G20" t="str">
         <f>角色!$E$10</f>
@@ -9345,15 +9382,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G21" t="str">
         <f>角色!$E$10</f>
@@ -9364,15 +9401,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$11</f>
@@ -9383,15 +9420,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$11</f>
@@ -9402,15 +9439,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$11</f>
@@ -9421,15 +9458,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$12</f>
@@ -9440,15 +9477,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$12</f>
@@ -9459,15 +9496,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$12</f>
@@ -9478,15 +9515,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -9497,15 +9534,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I28" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$13</f>
@@ -9516,15 +9553,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$13</f>
@@ -9535,15 +9572,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$13</f>
@@ -9554,15 +9591,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -9573,18 +9610,18 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -9592,16 +9629,16 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="9.57037037037037" customWidth="1"/>
-    <col min="4" max="4" width="12.5703703703704" customWidth="1"/>
-    <col min="5" max="5" width="20.637037037037" customWidth="1"/>
-    <col min="6" max="6" width="17.5703703703704" customWidth="1"/>
-    <col min="7" max="7" width="19.637037037037" customWidth="1"/>
-    <col min="8" max="8" width="22.2074074074074" customWidth="1"/>
-    <col min="9" max="9" width="8.78518518518518" customWidth="1"/>
-    <col min="10" max="10" width="13.2074074074074" customWidth="1"/>
+    <col min="1" max="1" width="9.57236842105263" customWidth="1"/>
+    <col min="4" max="4" width="12.5723684210526" customWidth="1"/>
+    <col min="5" max="5" width="20.6381578947368" customWidth="1"/>
+    <col min="6" max="6" width="17.5723684210526" customWidth="1"/>
+    <col min="7" max="7" width="19.6381578947368" customWidth="1"/>
+    <col min="8" max="8" width="22.2105263157895" customWidth="1"/>
+    <col min="9" max="9" width="8.7828947368421" customWidth="1"/>
+    <col min="10" max="10" width="13.2105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9627,13 +9664,13 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="2"/>
@@ -9649,35 +9686,35 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F7" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="F7" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>536</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -9686,9 +9723,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
@@ -9696,9 +9733,9 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -9706,9 +9743,9 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
@@ -9729,22 +9766,22 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="G13" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="E13" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>541</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9753,17 +9790,17 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F14" s="10" t="str">
+        <v>544</v>
+      </c>
+      <c r="F14" s="13" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="13" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2"/>
@@ -9771,9 +9808,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -9786,31 +9823,31 @@
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>546</v>
+      <c r="F17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9818,25 +9855,25 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>554</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="I18" s="2">
         <v>119864</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="K18" s="10" t="str">
+        <v>557</v>
+      </c>
+      <c r="K18" s="13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9846,25 +9883,25 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>559</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="I19" s="2">
         <v>119865</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="K19" s="10" t="str">
+        <v>557</v>
+      </c>
+      <c r="K19" s="13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9874,25 +9911,25 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>563</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="I20" s="2">
         <v>119866</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="K20" s="10" t="str">
+        <v>557</v>
+      </c>
+      <c r="K20" s="13" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
@@ -9904,7 +9941,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -9917,7 +9954,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -9931,22 +9968,22 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>568</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -9957,14 +9994,14 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F25" s="10" t="str">
+      <c r="E25" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="F25" s="13" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="13" t="str">
         <f>用户指引!$E$18</f>
         <v>fd_user_guide_step-1</v>
       </c>
@@ -9980,14 +10017,14 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F26" s="10" t="str">
+      <c r="E26" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="13" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G26" s="10" t="str">
+      <c r="G26" s="13" t="str">
         <f>用户指引!$E$19</f>
         <v>fd_user_guide_step-2</v>
       </c>
@@ -10003,14 +10040,14 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="F27" s="10" t="str">
+      <c r="E27" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F27" s="13" t="str">
         <f>用户指引!$E$8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="13" t="str">
         <f>用户指引!$E$20</f>
         <v>fd_user_guide_step-3</v>
       </c>
@@ -10022,39 +10059,39 @@
       <c r="K27" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11">
+      <c r="A29" s="3">
         <v>43998</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>572</v>
+      <c r="C29" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I29" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>575</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="F30" s="10" t="str">
+        <v>578</v>
+      </c>
+      <c r="F30" s="13" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
@@ -10069,7 +10106,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/knowledgebase_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13220" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="32520" windowHeight="16440" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590">
   <si>
     <r>
       <rPr>
@@ -2159,6 +2159,21 @@
     <t>WD</t>
   </si>
   <si>
+    <t>iam_menu-25</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.knowledge.ps.rename</t>
+  </si>
+  <si>
+    <t>重命名</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2825,6 +2840,12 @@
     <t>iam_menu_permission-120</t>
   </si>
   <si>
+    <t>iam_menu_permission-121</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.renameWorkSpace</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3246,6 +3267,18 @@
   </si>
   <si>
     <t>iam_role_permission-45</t>
+  </si>
+  <si>
+    <t>iam_role_permission-46</t>
+  </si>
+  <si>
+    <t>iam_role_permission-47</t>
+  </si>
+  <si>
+    <t>iam_role_permission-48</t>
+  </si>
+  <si>
+    <t>iam_role_permission-49</t>
   </si>
   <si>
     <t>TENANT_ROLE_TPL</t>
@@ -3481,10 +3514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3585,61 +3618,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3647,14 +3627,53 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3662,14 +3681,22 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3677,22 +3704,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3700,29 +3720,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3730,8 +3756,15 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3811,7 +3844,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3823,79 +4012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3907,91 +4024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4098,6 +4131,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4107,11 +4164,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4131,17 +4209,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4154,216 +4228,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="31"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4375,7 +4408,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4444,57 +4476,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="31"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="44" builtinId="34"/>
+    <cellStyle name="Link" xfId="45" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="49" builtinId="40"/>
+    <cellStyle name="Percent" xfId="50" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4839,8 +4871,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.3552631578947" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.3552631578947" style="27" customWidth="1"/>
     <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
     <col min="4" max="4" width="35.3552631578947" style="16" customWidth="1"/>
     <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
@@ -4856,136 +4888,136 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="44"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="32" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="29"/>
+    <row r="5" ht="18" spans="1:3">
+      <c r="A5" s="28"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="35" t="s">
+    <row r="8" ht="17.6" spans="3:5">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="37" t="s">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" ht="53" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" ht="51" spans="3:5">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="35" t="s">
+    <row r="11" ht="71" spans="3:5">
+      <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="35" t="s">
+    <row r="12" ht="18" spans="3:5">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="53"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="40" t="s">
+    <row r="13" ht="17.6" spans="3:5">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" ht="17.6" spans="3:5">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" ht="36" spans="3:5">
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4994,39 +5026,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="42" t="s">
+    <row r="19" ht="18" spans="3:5">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="43" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="43" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="43" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="43" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -5034,25 +5066,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" ht="33" spans="3:3">
+      <c r="C27" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5075,10 +5107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -5930,6 +5962,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="5:23">
+      <c r="E24" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>144</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W24" s="22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5939,10 +6016,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -5985,1375 +6062,1387 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G36" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G43" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G45" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G68" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G72" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G75" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G76" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G78" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G79" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G82" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G83" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G85" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G86" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G87" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G88" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G89" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G90" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G91" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G93" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G94" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G95" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G97" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G98" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G99" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G100" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G101" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G102" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G104" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G105" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G106" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G107" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G108" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G109" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G110" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" s="24" customFormat="1" spans="5:7">
       <c r="E111" s="24" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F111" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" s="24" customFormat="1" spans="5:7">
       <c r="E112" s="24" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F112" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" s="24" customFormat="1" spans="5:7">
       <c r="E113" s="24" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F113" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" s="24" customFormat="1" spans="5:7">
       <c r="E114" s="24" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F114" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" s="24" customFormat="1" spans="5:7">
       <c r="E115" s="24" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F115" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" s="24" customFormat="1" spans="5:7">
       <c r="E116" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F116" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" s="24" customFormat="1" spans="5:7">
       <c r="E117" s="24" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F117" s="24" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" s="24" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F118" s="24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" s="25" customFormat="1" spans="5:7">
-      <c r="E119" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F119" s="26" t="str">
+      <c r="E119" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" s="25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G119" s="26" t="s">
-        <v>179</v>
+      <c r="G119" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="120" s="25" customFormat="1" spans="5:7">
-      <c r="E120" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="F120" s="26" t="str">
+      <c r="E120" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" s="25" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G120" s="26" t="s">
-        <v>155</v>
+      <c r="G120" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F121" s="25" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7412,66 +7501,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="N7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="O7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J8" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -7485,19 +7574,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -7511,25 +7600,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -7543,19 +7632,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F11" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7569,22 +7658,22 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="22" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -7619,33 +7708,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="I14" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -7656,15 +7745,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7675,15 +7764,15 @@
         <v>iam_label-20</v>
       </c>
       <c r="I16" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7694,15 +7783,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F18" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7713,7 +7802,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7725,13 +7814,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <cols>
+    <col min="5" max="5" width="20.2763157894737" customWidth="1"/>
+    <col min="6" max="6" width="26.0921052631579" customWidth="1"/>
+    <col min="7" max="7" width="31.7894736842105" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
@@ -7766,10 +7860,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>54</v>
@@ -7784,75 +7878,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="O7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="P7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="R7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="S7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="T7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="U7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="V7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="X7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Y7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G8" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="I8" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7885,10 +7979,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="V8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -7896,19 +7990,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G9" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H9" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="I9" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7944,10 +8038,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="V9" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -7955,16 +8049,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G10" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H10" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -8001,33 +8095,33 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="V10" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Y10" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G11" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -8064,33 +8158,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="V11" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Y11" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F12" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G12" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H12" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -8127,33 +8221,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="V12" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Y12" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G13" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H13" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -8190,36 +8284,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="V13" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Y13" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G14" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H14" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="J14" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8253,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="V14" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8270,33 +8364,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="H16" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="I16" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8307,18 +8401,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H17" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I17" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J17" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8329,18 +8423,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H18" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I18" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J18" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8351,18 +8445,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H19" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I19" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J19" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8373,18 +8467,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H20" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J20" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8395,18 +8489,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H21" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I21" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J21" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8417,18 +8511,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H22" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I22" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J22" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8439,18 +8533,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I23" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J23" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8461,18 +8555,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H24" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I24" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J24" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8483,18 +8577,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I25" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J25" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -8505,18 +8599,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H26" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I26" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J26" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -8527,18 +8621,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H27" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J27" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -8549,18 +8643,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H28" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J28" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$11</f>
@@ -8571,18 +8665,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H29" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J29" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$11</f>
@@ -8593,18 +8687,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H30" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J30" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$11</f>
@@ -8615,18 +8709,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H31" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I31" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J31" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$11</f>
@@ -8637,18 +8731,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H32" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I32" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J32" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$11</f>
@@ -8659,18 +8753,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H33" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I33" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J33" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$11</f>
@@ -8681,18 +8775,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H34" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J34" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-